--- a/Players Fits and Nationalities/Fits.xlsx
+++ b/Players Fits and Nationalities/Fits.xlsx
@@ -37,6 +37,477 @@
     <t xml:space="preserve">Number of players using that fit</t>
   </si>
   <si>
+    <t xml:space="preserve">4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, Shoes, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, Shoes, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (AI Fit).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Shoes, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap, Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Yellow Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Shoes, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Shoes, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (Sub 4 fit).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Yellow Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Yellow Shoes, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Shoes, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, Yellow Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap, Shoes, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholar’s Hat, Shoes, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholar’s Hat, Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, Yellow Shoes, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholar’s Hat, Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholar’s Hat, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap, Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholar’s Hat, Yellow Shoes, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, Yellow Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, Yellow Shoes, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Yellow Shoes, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholar’s Hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholar’s Hat, Yellow Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Yellow Shoes, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Yellow Shoes, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Yellow Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap, Shoes, Tunic</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.</t>
   </si>
   <si>
@@ -46,7 +517,67 @@
     <t xml:space="preserve">Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">Total:</t>
+    <t xml:space="preserve">45.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 (Marty McFit™).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap, Yellow Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap, Yellow Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholar’s Hat, Yellow Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72 (WideGremlin Fit).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoes, Tunic</t>
   </si>
   <si>
     <t xml:space="preserve">2.</t>
@@ -67,159 +598,6 @@
     <t xml:space="preserve">Yellow Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">4.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, Shoes, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, Yellow Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, Yellow Shoes, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, Shoes, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, Shoes, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, Yellow Shoes, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, Yellow Shoes, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Shoes, King’s Cape</t>
-  </si>
-  <si>
     <t xml:space="preserve">21.</t>
   </si>
   <si>
@@ -229,204 +607,6 @@
     <t xml:space="preserve">Magic Crown, Yellow Shoes</t>
   </si>
   <si>
-    <t xml:space="preserve">22.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Yellow Shoes, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Shoes, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Shoes, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Yellow Shoes, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (Sub 4 fit).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Yellow Shoes, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (AI Fit).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Shoes, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Yellow Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Yellow Shoes, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Shoes, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Shoes, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Yellow Shoes, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Yellow Shoes, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap</t>
-  </si>
-  <si>
     <t xml:space="preserve">44.</t>
   </si>
   <si>
@@ -436,42 +616,6 @@
     <t xml:space="preserve">Shoes, King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">45.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap, Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap, Shoes, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 (Marty McFit™).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap, Yellow Shoes</t>
-  </si>
-  <si>
     <t xml:space="preserve">49.</t>
   </si>
   <si>
@@ -481,42 +625,6 @@
     <t xml:space="preserve">Cap, Yellow Shoes, King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">50.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap, Shoes, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap, Shoes, Tunic, King’s Cape</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.</t>
   </si>
   <si>
@@ -535,24 +643,6 @@
     <t xml:space="preserve">Yellow Shoes</t>
   </si>
   <si>
-    <t xml:space="preserve">56.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap, Yellow Shoes, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholar’s Hat</t>
-  </si>
-  <si>
     <t xml:space="preserve">58.</t>
   </si>
   <si>
@@ -562,15 +652,6 @@
     <t xml:space="preserve">Scholar’s Hat, King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">59.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholar’s Hat, Shoes</t>
-  </si>
-  <si>
     <t xml:space="preserve">60.</t>
   </si>
   <si>
@@ -580,15 +661,6 @@
     <t xml:space="preserve">Scholar’s Hat, Shoes, King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">61.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholar’s Hat, Yellow Shoes</t>
-  </si>
-  <si>
     <t xml:space="preserve">62.</t>
   </si>
   <si>
@@ -598,15 +670,6 @@
     <t xml:space="preserve">Scholar’s Hat, Yellow Shoes, King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">63.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholar’s Hat, Tunic</t>
-  </si>
-  <si>
     <t xml:space="preserve">64.</t>
   </si>
   <si>
@@ -616,15 +679,6 @@
     <t xml:space="preserve">Scholar’s Hat, Tunic, King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">65.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholar’s Hat, Shoes, Tunic</t>
-  </si>
-  <si>
     <t xml:space="preserve">66.</t>
   </si>
   <si>
@@ -632,60 +686,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yellow Shoes, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholar’s Hat, Shoes, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholar’s Hat, Yellow Shoes, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholar’s Hat, Yellow Shoes, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72 (WideGremlin Fit).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoes, Tunic</t>
   </si>
   <si>
     <t xml:space="preserve">Cosmetics</t>
@@ -932,7 +932,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1030,31 +1030,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Cap</c:v>
+                  <c:v>Crown</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Crown</c:v>
+                  <c:v>Shoes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Magic Crown</c:v>
+                  <c:v>King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Tunic</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Golden Cap</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scholar’s Hat</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Shoes</c:v>
+                  <c:v>Magic Crown</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Yellow Shoes</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Tunic</c:v>
+                  <c:v>Cap</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>King’s Cape</c:v>
+                  <c:v>Scholar’s Hat</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1066,31 +1066,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>643</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>482</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>253</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>270</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,11 +1098,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="50101223"/>
-        <c:axId val="74063512"/>
+        <c:axId val="52095098"/>
+        <c:axId val="81578388"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50101223"/>
+        <c:axId val="52095098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1135,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74063512"/>
+        <c:crossAx val="81578388"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74063512"/>
+        <c:axId val="81578388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1186,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50101223"/>
+        <c:crossAx val="52095098"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,7 +1239,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1337,220 +1337,220 @@
               <c:strCache>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>Shoes, Tunic, King’s Cape</c:v>
+                  <c:v>Crown</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Yellow Shoes, Tunic</c:v>
+                  <c:v>Crown, Shoes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Yellow Shoes, Tunic, King’s Cape</c:v>
+                  <c:v>Crown, Shoes, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Crown</c:v>
+                  <c:v>Crown, Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Crown, Shoes, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Magic Crown, Shoes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Crown, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Golden Cap, Shoes, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Crown, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Crown, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Crown, Shoes</c:v>
+                <c:pt idx="11">
+                  <c:v>Magic Crown, Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Crown, Shoes, King’s Cape</c:v>
+                <c:pt idx="12">
+                  <c:v>Cap, Shoes</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>Golden Cap</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Golden Cap, Shoes</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Shoes</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Golden Cap, Shoes, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Golden Cap, Yellow Shoes, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Magic Crown, Shoes, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Cap</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Magic Crown, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Golden Cap, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Magic Crown</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Magic Crown, Shoes, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Magic Crown, Yellow Shoes, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Magic Crown, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Golden Cap, Yellow Shoes, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Golden Cap, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Golden Cap, Shoes, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Crown, Yellow Shoes, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Cap, Shoes, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Scholar’s Hat, Shoes, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Scholar’s Hat, Shoes, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Crown, Yellow Shoes, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Scholar’s Hat, Shoes</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Scholar’s Hat, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Golden Cap, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Cap, Shoes, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Scholar’s Hat, Yellow Shoes, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Tunic</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>Crown, Yellow Shoes</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>Crown, Yellow Shoes, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Crown, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Crown, Tunic, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Crown, Shoes, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Crown, Shoes, Tunic, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="41">
                   <c:v>Crown, Yellow Shoes, Tunic</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Crown, Yellow Shoes, Tunic, King’s Cape</c:v>
+                <c:pt idx="42">
+                  <c:v>Golden Cap, Yellow Shoes, Tunic</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>Magic Crown</c:v>
+                <c:pt idx="43">
+                  <c:v>Cap, Tunic</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>Magic Crown, King’s Cape</c:v>
+                <c:pt idx="44">
+                  <c:v>Scholar’s Hat</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>Magic Crown, Shoes</c:v>
+                <c:pt idx="45">
+                  <c:v>Scholar’s Hat, Yellow Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>Magic Crown, Shoes, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Magic Crown, Yellow Shoes</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="46">
                   <c:v>King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="47">
                   <c:v>Magic Crown, Yellow Shoes, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="48">
                   <c:v>Magic Crown, Tunic</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>Magic Crown, Tunic, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Magic Crown, Shoes, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Magic Crown, Shoes, Tunic, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="49">
                   <c:v>Magic Crown, Yellow Shoes, Tunic</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>Magic Crown, Yellow Shoes, Tunic, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Golden Cap</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Golden Cap, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Golden Cap, Shoes</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Shoes</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Golden Cap, Shoes, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="50">
                   <c:v>Golden Cap, Yellow Shoes</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Golden Cap, Yellow Shoes, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Golden Cap, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Golden Cap, Tunic, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Golden Cap, Shoes, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Golden Cap, Shoes, Tunic, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Golden Cap, Yellow Shoes, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Golden Cap, Yellow Shoes, Tunic, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Cap</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Shoes, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>Cap, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>Cap, Shoes</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>Cap, Shoes, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Cap, Yellow Shoes</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>Cap, Yellow Shoes, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>Cap, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Cap, Tunic, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>Cap, Shoes, Tunic</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>Cap, Shoes, Tunic, King’s Cape</c:v>
+                  <c:v>Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>Cap, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Cap, Yellow Shoes</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Cap, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Cap, Yellow Shoes, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Scholar’s Hat, Yellow Shoes</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Shoes, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Yellow Shoes, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Yellow Shoes, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Magic Crown, Yellow Shoes</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Shoes, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Cap, Yellow Shoes, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>Cap, Yellow Shoes, Tunic</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="66">
                   <c:v>Yellow Shoes</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>Cap, Yellow Shoes, Tunic, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>Scholar’s Hat</c:v>
-                </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>Scholar’s Hat, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>Scholar’s Hat, Shoes</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="68">
                   <c:v>Scholar’s Hat, Shoes, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>Scholar’s Hat, Yellow Shoes</c:v>
-                </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="69">
                   <c:v>Scholar’s Hat, Yellow Shoes, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>Scholar’s Hat, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="70">
                   <c:v>Scholar’s Hat, Tunic, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>Scholar’s Hat, Shoes, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="71">
                   <c:v>Yellow Shoes, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>Scholar’s Hat, Shoes, Tunic, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>Scholar’s Hat, Yellow Shoes, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>Scholar’s Hat, Yellow Shoes, Tunic, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>Tunic</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Tunic, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>Shoes, Tunic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1562,154 +1562,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>262</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>189</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>30</c:v>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>16</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>2</c:v>
@@ -1718,64 +1718,64 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1783,11 +1783,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="12015394"/>
-        <c:axId val="33239892"/>
+        <c:axId val="259510"/>
+        <c:axId val="28973467"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="12015394"/>
+        <c:axId val="259510"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1856,7 +1856,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33239892"/>
+        <c:crossAx val="28973467"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1864,7 +1864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33239892"/>
+        <c:axId val="28973467"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12015394"/>
+        <c:crossAx val="259510"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2007,9 +2007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>544320</xdr:colOff>
+      <xdr:colOff>543240</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>656640</xdr:rowOff>
+      <xdr:rowOff>655560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2018,7 +2018,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11201400" y="71447040"/>
-        <a:ext cx="7162920" cy="4457160"/>
+        <a:ext cx="7161840" cy="4456080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2037,9 +2037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>550440</xdr:colOff>
+      <xdr:colOff>549360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>370800</xdr:rowOff>
+      <xdr:rowOff>369720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2048,7 +2048,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12002760" y="2276640"/>
-        <a:ext cx="20612160" cy="12762720"/>
+        <a:ext cx="20611080" cy="12761640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2062,18 +2062,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image16.jpg" descr=""/>
+        <xdr:cNvPr id="2" name="image67.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2082,8 +2082,378 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="3349080" y="75247560"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="image7.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="69532560"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="image32.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="70485120"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="image31.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="74295000"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="image25.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="71437680"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="image65.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="72389880"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="image35.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="73342440"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="image50.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="77152680"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="image34.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="76200120"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="image34.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="76200120"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="image7.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="3349080" y="380880"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2104,23 +2474,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image18.jpg" descr=""/>
+        <xdr:cNvPr id="13" name="image30.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="1333440"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2141,23 +2511,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image10.jpg" descr=""/>
+        <xdr:cNvPr id="14" name="image6.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="2286000"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2178,23 +2548,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image7.jpg" descr=""/>
+        <xdr:cNvPr id="15" name="image9.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="3238560"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2215,23 +2585,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="image20.jpg" descr=""/>
+        <xdr:cNvPr id="16" name="image12.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="4191120"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2248,27 +2618,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="image30.jpg" descr=""/>
+        <xdr:cNvPr id="17" name="image11.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="5143680"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="5143320"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2289,23 +2659,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="image6.jpg" descr=""/>
+        <xdr:cNvPr id="18" name="image15.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="6095880"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2326,23 +2696,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="image17.jpg" descr=""/>
+        <xdr:cNvPr id="19" name="image8.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="7048440"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2363,23 +2733,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="image19.jpg" descr=""/>
+        <xdr:cNvPr id="20" name="image48.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId21"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="8001000"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2396,27 +2766,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>951120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="image8.jpg" descr=""/>
+        <xdr:cNvPr id="21" name="image1.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId22"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="8953560"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="8953920"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2437,23 +2807,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="image15.jpg" descr=""/>
+        <xdr:cNvPr id="22" name="image20.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId23"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="9906120"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2474,23 +2844,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="image1.jpg" descr=""/>
+        <xdr:cNvPr id="23" name="image36.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip r:embed="rId24"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="10858680"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2511,23 +2881,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="image12.jpg" descr=""/>
+        <xdr:cNvPr id="24" name="image39.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip r:embed="rId25"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="11810880"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2544,27 +2914,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>951120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="image9.jpg" descr=""/>
+        <xdr:cNvPr id="25" name="image35.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip r:embed="rId26"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="12763440"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="12763800"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2585,23 +2955,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="image4.jpg" descr=""/>
+        <xdr:cNvPr id="26" name="image42.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip r:embed="rId27"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="13716000"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2622,23 +2992,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="image14.jpg" descr=""/>
+        <xdr:cNvPr id="27" name="image32.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip r:embed="rId28"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="14668560"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2659,23 +3029,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="image31.jpg" descr=""/>
+        <xdr:cNvPr id="28" name="image45.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip r:embed="rId29"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="15621120"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2692,27 +3062,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>951120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="image2.jpg" descr=""/>
+        <xdr:cNvPr id="29" name="image38.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip r:embed="rId30"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="16573680"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="16574040"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2733,23 +3103,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="image11.jpg" descr=""/>
+        <xdr:cNvPr id="30" name="image3.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip r:embed="rId31"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="17525880"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2770,23 +3140,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="image3.jpg" descr=""/>
+        <xdr:cNvPr id="31" name="image34.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip r:embed="rId32"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="18478440"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2803,27 +3173,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>951120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="image13.jpg" descr=""/>
+        <xdr:cNvPr id="32" name="image2.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip r:embed="rId33"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="19431000"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="19431360"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2844,23 +3214,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="image25.jpg" descr=""/>
+        <xdr:cNvPr id="33" name="image27.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <a:blip r:embed="rId34"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="20383560"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2881,23 +3251,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="image21.jpg" descr=""/>
+        <xdr:cNvPr id="34" name="image31.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <a:blip r:embed="rId35"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="21336120"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2914,27 +3284,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="image23.jpg" descr=""/>
+        <xdr:cNvPr id="35" name="image22.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <a:blip r:embed="rId36"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="22288680"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="22288320"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2951,27 +3321,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="image5.jpg" descr=""/>
+        <xdr:cNvPr id="36" name="image41.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
+        <a:blip r:embed="rId37"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="23240880"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="23240520"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2988,27 +3358,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="image22.jpg" descr=""/>
+        <xdr:cNvPr id="37" name="image5.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
+        <a:blip r:embed="rId38"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="24193440"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="24193080"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3029,23 +3399,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="image36.jpg" descr=""/>
+        <xdr:cNvPr id="38" name="image37.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
+        <a:blip r:embed="rId39"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="25146000"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3062,27 +3432,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="image29.jpg" descr=""/>
+        <xdr:cNvPr id="39" name="image46.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
+        <a:blip r:embed="rId40"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="26098560"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="26098200"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3103,23 +3473,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="image41.jpg" descr=""/>
+        <xdr:cNvPr id="40" name="image33.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
+        <a:blip r:embed="rId41"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="27051120"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3140,23 +3510,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="image35.jpg" descr=""/>
+        <xdr:cNvPr id="41" name="image14.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
+        <a:blip r:embed="rId42"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="28003680"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3177,23 +3547,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="image27.jpg" descr=""/>
+        <xdr:cNvPr id="42" name="image43.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
+        <a:blip r:embed="rId43"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="28955880"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3214,23 +3584,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="image42.jpg" descr=""/>
+        <xdr:cNvPr id="43" name="image56.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
+        <a:blip r:embed="rId44"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="29908440"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3251,23 +3621,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="image32.jpg" descr=""/>
+        <xdr:cNvPr id="44" name="image51.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
+        <a:blip r:embed="rId45"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="30861000"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3284,27 +3654,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>951120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="image48.jpg" descr=""/>
+        <xdr:cNvPr id="45" name="image19.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
+        <a:blip r:embed="rId46"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="31813560"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="31813920"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3325,23 +3695,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="image40.jpg" descr=""/>
+        <xdr:cNvPr id="46" name="image62.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
+        <a:blip r:embed="rId47"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="32766120"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3358,27 +3728,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="image37.jpg" descr=""/>
+        <xdr:cNvPr id="47" name="image60.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
+        <a:blip r:embed="rId48"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="33718680"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="33718320"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3395,27 +3765,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="image46.jpg" descr=""/>
+        <xdr:cNvPr id="48" name="image47.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
+        <a:blip r:embed="rId49"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="34670880"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="34670520"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3436,23 +3806,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="image47.jpg" descr=""/>
+        <xdr:cNvPr id="49" name="image61.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
+        <a:blip r:embed="rId50"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="35623440"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3473,23 +3843,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="image33.jpg" descr=""/>
+        <xdr:cNvPr id="50" name="image52.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
+        <a:blip r:embed="rId51"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="36576000"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3510,60 +3880,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="image45.jpg" descr=""/>
+        <xdr:cNvPr id="51" name="image65.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId42"/>
+        <a:blip r:embed="rId52"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="37528560"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="image28.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId43"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="38481120"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3584,23 +3917,60 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="image38.jpg" descr=""/>
+        <xdr:cNvPr id="52" name="image4.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId44"/>
+        <a:blip r:embed="rId53"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="39433680"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>951120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="image17.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="38481480"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3617,27 +3987,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>951120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="image34.jpg" descr=""/>
+        <xdr:cNvPr id="54" name="image28.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId45"/>
+        <a:blip r:embed="rId55"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="40385880"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="40386240"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3658,23 +4028,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="image26.jpg" descr=""/>
+        <xdr:cNvPr id="55" name="image58.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId46"/>
+        <a:blip r:embed="rId56"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="41338440"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3695,23 +4065,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="image24.jpg" descr=""/>
+        <xdr:cNvPr id="56" name="image50.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId47"/>
+        <a:blip r:embed="rId57"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="42291000"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3732,23 +4102,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="image39.jpg" descr=""/>
+        <xdr:cNvPr id="57" name="image72.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId48"/>
+        <a:blip r:embed="rId58"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="43243560"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3764,102 +4134,28 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>951120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="image43.jpg" descr=""/>
+        <xdr:cNvPr id="58" name="image40.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId49"/>
+        <a:blip r:embed="rId59"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="44196120"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="image44.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId50"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="45148680"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="image69.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId51"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="46100880"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="48006360"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3880,23 +4176,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="image58.jpg" descr=""/>
+        <xdr:cNvPr id="59" name="image29.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId52"/>
+        <a:blip r:embed="rId60"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="47053440"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3912,28 +4208,102 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>951120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="image54.jpg" descr=""/>
+        <xdr:cNvPr id="60" name="image25.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId53"/>
+        <a:blip r:embed="rId61"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="48006000"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="44196480"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>951120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="image21.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId62"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="45149040"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>951480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="image23.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId63"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="46101600"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3954,23 +4324,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="image68.jpg" descr=""/>
+        <xdr:cNvPr id="63" name="image68.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId54"/>
+        <a:blip r:embed="rId64"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="48958560"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3991,23 +4361,60 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="image61.jpg" descr=""/>
+        <xdr:cNvPr id="64" name="image16.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId55"/>
+        <a:blip r:embed="rId65"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="49911120"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>951120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="image44.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId66"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="51816240"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4028,60 +4435,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="image64.jpg" descr=""/>
+        <xdr:cNvPr id="66" name="image24.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId56"/>
+        <a:blip r:embed="rId67"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="50863680"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="image67.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId57"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="51815880"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4098,27 +4468,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="image57.jpg" descr=""/>
+        <xdr:cNvPr id="67" name="image54.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId58"/>
+        <a:blip r:embed="rId68"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="52768440"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="52768080"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4135,27 +4505,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="image50.jpg" descr=""/>
+        <xdr:cNvPr id="68" name="image57.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId59"/>
+        <a:blip r:embed="rId69"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="53721000"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="53720640"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4172,27 +4542,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="image55.jpg" descr=""/>
+        <xdr:cNvPr id="69" name="image66.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId60"/>
+        <a:blip r:embed="rId70"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="54673560"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="54672840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4213,23 +4583,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="image62.jpg" descr=""/>
+        <xdr:cNvPr id="70" name="image70.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId61"/>
+        <a:blip r:embed="rId71"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="55626120"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4250,23 +4620,356 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="image49.jpg" descr=""/>
+        <xdr:cNvPr id="71" name="image71.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId62"/>
+        <a:blip r:embed="rId72"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="56578680"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>950400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="image53.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId73"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="68008320"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>950400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="image59.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId74"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="67055760"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>950400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="image63.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId75"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="66103200"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>950400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="image49.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId76"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="65150640"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>950400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="image55.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId77"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="64198080"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>950400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="image64.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId78"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="62293320"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>950400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="image67.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId79"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="63245520"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>950400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="image69.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId80"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="61340760"/>
+          <a:ext cx="950760" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="image26.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId81"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="60388560"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4287,23 +4990,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="image66.jpg" descr=""/>
+        <xdr:cNvPr id="81" name="image18.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId63"/>
+        <a:blip r:embed="rId82"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="57530880"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4324,23 +5027,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="image63.jpg" descr=""/>
+        <xdr:cNvPr id="82" name="image10.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId64"/>
+        <a:blip r:embed="rId83"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="58483440"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:ext cx="950760" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4356,694 +5059,28 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="image60.jpg" descr=""/>
+        <xdr:cNvPr id="83" name="image13.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId65"/>
+        <a:blip r:embed="rId84"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="59436000"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="image59.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId66"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="60388560"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="image56.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId67"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="61341120"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="image53.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId68"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="62293680"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="image51.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId69"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="63245880"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="image52.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId70"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="64198440"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="image72.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId71"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="65151000"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="image65.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId72"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="66103560"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="image70.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId73"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="67056120"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="image71.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId74"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="68008680"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="image34.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId75"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="69532560"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="image7.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId76"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="70485120"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="image31.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId77"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="71437680"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="image35.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId78"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="72389880"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="image50.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId79"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="73342440"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="image32.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId80"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="74295000"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="image67.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId81"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="75247560"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="image65.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId82"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="76200120"/>
-          <a:ext cx="951840" cy="951840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>951840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="image25.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId83"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="77152680"/>
-          <a:ext cx="951840" cy="951840"/>
+          <a:off x="3349080" y="59434200"/>
+          <a:ext cx="950760" cy="952560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5065,8 +5102,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E62" activeCellId="0" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5131,7 +5168,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
@@ -5139,7 +5176,7 @@
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">SUM(E2:E73)</f>
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -5172,7 +5209,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -5208,7 +5245,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -5244,7 +5281,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -5280,7 +5317,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -5316,7 +5353,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -5352,7 +5389,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -5388,7 +5425,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -5424,7 +5461,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -5460,7 +5497,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5496,7 +5533,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -5568,7 +5605,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -5604,7 +5641,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -5640,7 +5677,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -5676,7 +5713,7 @@
         <v>53</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -5712,7 +5749,7 @@
         <v>56</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -5748,7 +5785,7 @@
         <v>59</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -5784,7 +5821,7 @@
         <v>62</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -5820,7 +5857,7 @@
         <v>65</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -5856,7 +5893,7 @@
         <v>68</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -5892,7 +5929,7 @@
         <v>71</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -5928,7 +5965,7 @@
         <v>74</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -5964,7 +6001,7 @@
         <v>77</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -6000,7 +6037,7 @@
         <v>80</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -6036,7 +6073,7 @@
         <v>83</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -6072,7 +6109,7 @@
         <v>86</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -6108,7 +6145,7 @@
         <v>89</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -6180,7 +6217,7 @@
         <v>95</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -6216,7 +6253,7 @@
         <v>98</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -6252,7 +6289,7 @@
         <v>101</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -6288,7 +6325,7 @@
         <v>104</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -6324,7 +6361,7 @@
         <v>107</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -6360,7 +6397,7 @@
         <v>110</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -6396,7 +6433,7 @@
         <v>113</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -6432,7 +6469,7 @@
         <v>116</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -6468,7 +6505,7 @@
         <v>119</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -6504,7 +6541,7 @@
         <v>122</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -6540,7 +6577,7 @@
         <v>125</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -6612,7 +6649,7 @@
         <v>131</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -6648,7 +6685,7 @@
         <v>134</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -6684,7 +6721,7 @@
         <v>137</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -6720,7 +6757,7 @@
         <v>140</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -6756,7 +6793,7 @@
         <v>143</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -6792,7 +6829,7 @@
         <v>146</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -6828,7 +6865,7 @@
         <v>149</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -6864,7 +6901,7 @@
         <v>152</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -6900,7 +6937,7 @@
         <v>155</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -7008,7 +7045,7 @@
         <v>164</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -7044,7 +7081,7 @@
         <v>167</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -7080,7 +7117,7 @@
         <v>170</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -7152,7 +7189,7 @@
         <v>176</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -7188,7 +7225,7 @@
         <v>179</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -7224,7 +7261,7 @@
         <v>182</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -7260,7 +7297,7 @@
         <v>185</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -7296,7 +7333,7 @@
         <v>188</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -7368,7 +7405,7 @@
         <v>194</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -7440,7 +7477,7 @@
         <v>200</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -7512,7 +7549,7 @@
         <v>206</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -7548,7 +7585,7 @@
         <v>209</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -7584,7 +7621,7 @@
         <v>212</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -7620,7 +7657,7 @@
         <v>215</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -7656,7 +7693,7 @@
         <v>218</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -7692,7 +7729,7 @@
         <v>221</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -7776,15 +7813,15 @@
     </row>
     <row r="76" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="n">
-        <f aca="false">SUM(E44,E45,E46,E47,E48,E49,E50,E51,E52,E53,E54,E55,E57)</f>
-        <v>47</v>
+        <f aca="false">SUM(E2,E12,E3,E4,E42,E35,E9,E11,E6,E5,E43,E31)</f>
+        <v>646</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -7793,7 +7830,7 @@
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">SUM(D76:D84)</f>
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -7816,15 +7853,15 @@
     </row>
     <row r="77" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="n">
-        <f aca="false">SUM(E5,E6,E7,E8,E9,E10,E11,E13,E14,E15,E16,E17)</f>
-        <v>643</v>
+        <f aca="false">SUM(E54,E3,E4,E6,E5,E7,E20,E25,E13,E16,E17,E10,E30,E18,E65,E14,E32,E53,E39,E36,E70,E33,E34,E61)</f>
+        <v>482</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -7851,15 +7888,15 @@
     </row>
     <row r="78" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="n">
-        <f aca="false">SUM(E18,E19,E20,E21,E22,E24,E25,E26,E27,E28,E29,E30)</f>
-        <v>102</v>
+        <f aca="false">SUM(E54,E63,E12,E4,E35,E11,E5,E31,E22,E20,E48,E49,E27,E13,E26,E23,E10,E28,E38,E18,E19,E65,E55,E32,E66,E57,E39,E58,E69,E70,E71,E72,E73,E34,E47,E60)</f>
+        <v>275</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -7886,15 +7923,15 @@
     </row>
     <row r="79" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="n">
-        <f aca="false">SUM(E31,E32,E33,E35,E36,E37,E38,E39,E40,E41,E42,E43)</f>
-        <v>109</v>
+        <f aca="false">SUM(E54,E62,E63,E9,E11,E6,E5,E43,E31,E50,E27,E25,E13,E51,E26,E29,E38,E30,E18,E44,E19,E45,E57,E53,E39,E67,E58,E37,E72,E33,E34,E40,E47,E41,E60,E61)</f>
+        <v>257</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -7921,15 +7958,15 @@
     </row>
     <row r="80" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="n">
-        <f aca="false">SUM(E58,E59,E60,E61,E62,E63,E64,E65,E66,E68,E69,E70)</f>
-        <v>33</v>
+        <f aca="false">SUM(E15,E23,E16,E10,E52,E28,E29,E38,E30,E18,E44,E19)</f>
+        <v>109</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -7956,15 +7993,15 @@
     </row>
     <row r="81" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="n">
-        <f aca="false">SUM(E2,E7,E8,E14,E15,E20,E21,E27,E28,E33,E34,E35,E40,E41,E45,E47,E48,E53,E54,E60,E61,E66,E68,E73)</f>
-        <v>482</v>
+        <f aca="false">SUM(E24,E22,E7,E20,E64,E49,E50,E27,E25,E13,E51,E26)</f>
+        <v>104</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -7991,15 +8028,15 @@
     </row>
     <row r="82" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="n">
-        <f aca="false">SUM(E3,E4,E9,E10,E16,E17,E22,E24,E29,E30,E36,E37,E42,E43,E49,E50,E55,E56,E57,E62,E63,E67,E69,E70)</f>
-        <v>62</v>
+        <f aca="false">SUM(E62,E63,E42,E35,E43,E31,E64,E49,E51,E26,E52,E28,E44,E19,E56,E66,E67,E68,E58,E59,E71,E73,E40,E47)</f>
+        <v>63</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -8026,15 +8063,15 @@
     </row>
     <row r="83" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="n">
-        <f aca="false">SUM(E2,E3,E4,E11,E13,E14,E15,E16,E17,E25,E26,E27,E28,E29,E30,E38,E39,E40,E41,E42,E43,E51,E52,E53,E54,E55,E57,E64,E65,E66,E68,E69,E70,E71,E72,E73)</f>
-        <v>253</v>
+        <f aca="false">SUM(E21,E65,E55,E14,E32,E56,E66,E45,E57,E53,E39,E67,E58)</f>
+        <v>46</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -8061,15 +8098,15 @@
     </row>
     <row r="84" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="n">
-        <f aca="false">SUM(E2,E4,E6,E8,E10,E13,E15,E17,E19,E21,E23,E24,E26,E28,E30,E32,E35,E37,E39,E41,E43,E45,E46,E48,E50,E52,E54,E57,E59,E61,E63,E65,E67,E68,E70,E72)</f>
-        <v>270</v>
+        <f aca="false">SUM(E46,E69,E36,E70,E59,E71,E37,E72,E33,E34,E40,E47)</f>
+        <v>33</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -8096,9 +8133,9 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="0"/>
+      <c r="C85" s="0"/>
+      <c r="D85" s="0"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -8118,9 +8155,6 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
-      <c r="X85" s="3"/>
-      <c r="Y85" s="3"/>
-      <c r="Z85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
@@ -8263,11 +8297,11 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="A91" s="0"/>
+      <c r="B91" s="0"/>
+      <c r="C91" s="0"/>
+      <c r="D91" s="0"/>
+      <c r="E91" s="0"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -8284,18 +8318,13 @@
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
       <c r="U91" s="3"/>
-      <c r="V91" s="3"/>
-      <c r="W91" s="3"/>
-      <c r="X91" s="3"/>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
+      <c r="A92" s="0"/>
+      <c r="B92" s="0"/>
+      <c r="C92" s="0"/>
+      <c r="D92" s="0"/>
+      <c r="E92" s="0"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -8312,18 +8341,13 @@
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
-      <c r="V92" s="3"/>
-      <c r="W92" s="3"/>
-      <c r="X92" s="3"/>
-      <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="A93" s="0"/>
+      <c r="B93" s="0"/>
+      <c r="C93" s="0"/>
+      <c r="D93" s="0"/>
+      <c r="E93" s="0"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -8340,18 +8364,13 @@
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
-      <c r="V93" s="3"/>
-      <c r="W93" s="3"/>
-      <c r="X93" s="3"/>
-      <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="A94" s="0"/>
+      <c r="B94" s="0"/>
+      <c r="C94" s="0"/>
+      <c r="D94" s="0"/>
+      <c r="E94" s="0"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -8368,11 +8387,6 @@
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
-      <c r="V94" s="3"/>
-      <c r="W94" s="3"/>
-      <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
@@ -20858,9 +20872,9 @@
   <mergeCells count="1">
     <mergeCell ref="A75:D75"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="C54">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(C2))&gt;0</formula>
+      <formula>LEN(TRIM(C54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Players Fits and Nationalities/Fits.xlsx
+++ b/Players Fits and Nationalities/Fits.xlsx
@@ -932,7 +932,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1066,7 +1066,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>646</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>482</c:v>
@@ -1098,11 +1098,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="52095098"/>
-        <c:axId val="81578388"/>
+        <c:axId val="68431385"/>
+        <c:axId val="81495146"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52095098"/>
+        <c:axId val="68431385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1135,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81578388"/>
+        <c:crossAx val="81495146"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81578388"/>
+        <c:axId val="81495146"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1186,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52095098"/>
+        <c:crossAx val="68431385"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,7 +1239,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1562,7 +1562,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>262</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>189</c:v>
@@ -1783,11 +1783,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="259510"/>
-        <c:axId val="28973467"/>
+        <c:axId val="10379076"/>
+        <c:axId val="32790199"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="259510"/>
+        <c:axId val="10379076"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1856,7 +1856,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28973467"/>
+        <c:crossAx val="32790199"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1864,7 +1864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28973467"/>
+        <c:axId val="32790199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259510"/>
+        <c:crossAx val="10379076"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2007,9 +2007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>543240</xdr:colOff>
+      <xdr:colOff>542880</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>655560</xdr:rowOff>
+      <xdr:rowOff>655200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2018,7 +2018,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11201400" y="71447040"/>
-        <a:ext cx="7161840" cy="4456080"/>
+        <a:ext cx="7161480" cy="4455720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2037,9 +2037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>549360</xdr:colOff>
+      <xdr:colOff>549000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>369720</xdr:rowOff>
+      <xdr:rowOff>369360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2048,7 +2048,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12002760" y="2276640"/>
-        <a:ext cx="20611080" cy="12761640"/>
+        <a:ext cx="20610720" cy="12761280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2067,9 +2067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2083,7 +2083,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="75247560"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2104,9 +2104,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2120,7 +2120,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="69532560"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2141,9 +2141,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2157,7 +2157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="70485120"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2178,9 +2178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2194,7 +2194,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="74295000"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2215,9 +2215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2231,7 +2231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="71437680"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2252,9 +2252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2268,7 +2268,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="72389880"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2289,9 +2289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2305,7 +2305,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="73342440"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2326,9 +2326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2342,7 +2342,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="77152680"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2363,9 +2363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2379,7 +2379,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="76200120"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2400,9 +2400,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2416,7 +2416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="76200120"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2437,9 +2437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2453,7 +2453,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="380880"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2474,9 +2474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2490,7 +2490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="1333440"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2511,9 +2511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2527,7 +2527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="2286000"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2548,9 +2548,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2564,7 +2564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="3238560"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2585,9 +2585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2601,7 +2601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="4191120"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2622,9 +2622,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2638,7 +2638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="5143320"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2659,9 +2659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2675,7 +2675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="6095880"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2696,9 +2696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2712,7 +2712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="7048440"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2733,9 +2733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2749,7 +2749,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="8001000"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2770,9 +2770,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>951120</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2786,7 +2786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="8953920"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2807,9 +2807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2823,7 +2823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="9906120"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2844,9 +2844,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2860,7 +2860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="10858680"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2881,9 +2881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2897,7 +2897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="11810880"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2918,9 +2918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>951120</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2934,7 +2934,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="12763800"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2955,9 +2955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2971,7 +2971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="13716000"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2992,9 +2992,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3008,7 +3008,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="14668560"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3029,9 +3029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3045,7 +3045,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="15621120"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3066,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>951120</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3082,7 +3082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="16574040"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3103,9 +3103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3119,7 +3119,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="17525880"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3140,9 +3140,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3156,7 +3156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="18478440"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3177,9 +3177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>951120</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3193,7 +3193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="19431360"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3214,9 +3214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3230,7 +3230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="20383560"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3251,9 +3251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3267,7 +3267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="21336120"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3288,9 +3288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3304,7 +3304,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="22288320"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3325,9 +3325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3341,7 +3341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="23240520"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3362,9 +3362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3378,7 +3378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="24193080"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3399,9 +3399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3415,7 +3415,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="25146000"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3436,9 +3436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3452,7 +3452,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="26098200"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3473,9 +3473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3489,7 +3489,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="27051120"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3510,9 +3510,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3526,7 +3526,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="28003680"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3547,9 +3547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3563,7 +3563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="28955880"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3584,9 +3584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3600,7 +3600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="29908440"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3621,9 +3621,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3637,7 +3637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="30861000"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3658,9 +3658,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>951120</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3674,7 +3674,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="31813920"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3695,9 +3695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3711,7 +3711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="32766120"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3732,9 +3732,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3748,7 +3748,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="33718320"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3769,9 +3769,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3785,7 +3785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="34670520"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3806,9 +3806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3822,7 +3822,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="35623440"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3843,9 +3843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3859,7 +3859,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="36576000"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3880,9 +3880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3896,7 +3896,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="37528560"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3917,9 +3917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3933,7 +3933,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="39433680"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3954,9 +3954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>951120</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3970,7 +3970,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="38481480"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3991,9 +3991,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>951120</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4007,7 +4007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="40386240"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4028,9 +4028,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4044,7 +4044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="41338440"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4065,9 +4065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4081,7 +4081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="42291000"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4102,9 +4102,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4118,7 +4118,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="43243560"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4139,9 +4139,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>951120</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4155,7 +4155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="48006360"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4176,9 +4176,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4192,7 +4192,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="47053440"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4213,9 +4213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>951120</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4229,7 +4229,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="44196480"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4250,9 +4250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>951120</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4266,7 +4266,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="45149040"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4287,9 +4287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>951480</xdr:rowOff>
+      <xdr:rowOff>951120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4303,7 +4303,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="46101600"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4324,9 +4324,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4340,7 +4340,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="48958560"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4361,9 +4361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4377,7 +4377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="49911120"/>
-          <a:ext cx="950760" cy="948600"/>
+          <a:ext cx="950400" cy="948240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4398,9 +4398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>951120</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4414,7 +4414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="51816240"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4435,9 +4435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4451,7 +4451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="50863680"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4472,9 +4472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4488,7 +4488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="52768080"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4509,9 +4509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4525,7 +4525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="53720640"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4546,9 +4546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4562,7 +4562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="54672840"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4583,9 +4583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4599,7 +4599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="55626120"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4620,9 +4620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4636,7 +4636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="56578680"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4657,9 +4657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4673,7 +4673,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="68008320"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4694,9 +4694,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4710,7 +4710,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="67055760"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4731,9 +4731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4747,7 +4747,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="66103200"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4768,9 +4768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4784,7 +4784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="65150640"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4805,9 +4805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4821,7 +4821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="64198080"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4842,9 +4842,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4858,7 +4858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="62293320"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4879,9 +4879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4895,7 +4895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="63245520"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4916,9 +4916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4932,7 +4932,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="61340760"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4953,9 +4953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4969,7 +4969,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="60388560"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4990,9 +4990,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5006,7 +5006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="57530880"/>
-          <a:ext cx="950760" cy="950400"/>
+          <a:ext cx="950400" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5027,9 +5027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5043,7 +5043,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="58483440"/>
-          <a:ext cx="950760" cy="950760"/>
+          <a:ext cx="950400" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5064,9 +5064,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5080,7 +5080,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="59434200"/>
-          <a:ext cx="950760" cy="952560"/>
+          <a:ext cx="950400" cy="952200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5102,8 +5102,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E62" activeCellId="0" sqref="E62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5168,7 +5168,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">SUM(E2:E73)</f>
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -7821,7 +7821,7 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="n">
         <f aca="false">SUM(E2,E12,E3,E4,E42,E35,E9,E11,E6,E5,E43,E31)</f>
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -7830,7 +7830,7 @@
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">SUM(D76:D84)</f>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -8133,9 +8133,6 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
-      <c r="B85" s="0"/>
-      <c r="C85" s="0"/>
-      <c r="D85" s="0"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -8297,11 +8294,6 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0"/>
-      <c r="B91" s="0"/>
-      <c r="C91" s="0"/>
-      <c r="D91" s="0"/>
-      <c r="E91" s="0"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -8320,11 +8312,6 @@
       <c r="U91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0"/>
-      <c r="B92" s="0"/>
-      <c r="C92" s="0"/>
-      <c r="D92" s="0"/>
-      <c r="E92" s="0"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -8343,11 +8330,6 @@
       <c r="U92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0"/>
-      <c r="B93" s="0"/>
-      <c r="C93" s="0"/>
-      <c r="D93" s="0"/>
-      <c r="E93" s="0"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -8366,11 +8348,6 @@
       <c r="U93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0"/>
-      <c r="B94" s="0"/>
-      <c r="C94" s="0"/>
-      <c r="D94" s="0"/>
-      <c r="E94" s="0"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>

--- a/Players Fits and Nationalities/Fits.xlsx
+++ b/Players Fits and Nationalities/Fits.xlsx
@@ -932,7 +932,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1066,10 +1066,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>647</c:v>
+                  <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>482</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>275</c:v>
@@ -1098,11 +1098,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="68431385"/>
-        <c:axId val="81495146"/>
+        <c:axId val="54015846"/>
+        <c:axId val="35543621"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68431385"/>
+        <c:axId val="54015846"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1135,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81495146"/>
+        <c:crossAx val="35543621"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81495146"/>
+        <c:axId val="35543621"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1186,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68431385"/>
+        <c:crossAx val="54015846"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,7 +1239,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1562,10 +1562,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>263</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>43</c:v>
@@ -1783,11 +1783,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="10379076"/>
-        <c:axId val="32790199"/>
+        <c:axId val="62032720"/>
+        <c:axId val="46799282"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="10379076"/>
+        <c:axId val="62032720"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1856,7 +1856,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32790199"/>
+        <c:crossAx val="46799282"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1864,7 +1864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32790199"/>
+        <c:axId val="46799282"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10379076"/>
+        <c:crossAx val="62032720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2007,9 +2007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>542880</xdr:colOff>
+      <xdr:colOff>542520</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>655200</xdr:rowOff>
+      <xdr:rowOff>654840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2018,7 +2018,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11201400" y="71447040"/>
-        <a:ext cx="7161480" cy="4455720"/>
+        <a:ext cx="7161120" cy="4455360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2037,9 +2037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>549000</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>369360</xdr:rowOff>
+      <xdr:rowOff>369000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2048,7 +2048,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12002760" y="2276640"/>
-        <a:ext cx="20610720" cy="12761280"/>
+        <a:ext cx="20610360" cy="12760920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2067,9 +2067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2083,7 +2083,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="75247560"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2104,9 +2104,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2120,7 +2120,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="69532560"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2141,9 +2141,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2157,7 +2157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="70485120"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2178,9 +2178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2194,7 +2194,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="74295000"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2215,9 +2215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2231,7 +2231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="71437680"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2252,9 +2252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2268,7 +2268,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="72389880"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2289,9 +2289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2305,7 +2305,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="73342440"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2326,9 +2326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2342,7 +2342,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="77152680"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2363,9 +2363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2379,7 +2379,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="76200120"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2400,9 +2400,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2416,7 +2416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="76200120"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2437,9 +2437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2453,7 +2453,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="380880"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2474,9 +2474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2490,7 +2490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="1333440"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2511,9 +2511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2527,7 +2527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="2286000"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2548,9 +2548,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2564,7 +2564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="3238560"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2585,9 +2585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2601,7 +2601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="4191120"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2622,9 +2622,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2638,7 +2638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="5143320"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2659,9 +2659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2675,7 +2675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="6095880"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2696,9 +2696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2712,7 +2712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="7048440"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2733,9 +2733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2749,7 +2749,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="8001000"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2770,9 +2770,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2786,7 +2786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="8953920"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2807,9 +2807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2823,7 +2823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="9906120"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2844,9 +2844,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2860,7 +2860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="10858680"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2881,9 +2881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2897,7 +2897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="11810880"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2918,9 +2918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2934,7 +2934,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="12763800"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2955,9 +2955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2971,7 +2971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="13716000"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2992,9 +2992,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3008,7 +3008,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="14668560"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3029,9 +3029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3045,7 +3045,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="15621120"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3066,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3082,7 +3082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="16574040"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3103,9 +3103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3119,7 +3119,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="17525880"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3140,9 +3140,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3156,7 +3156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="18478440"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3177,9 +3177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3193,7 +3193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="19431360"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3214,9 +3214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3230,7 +3230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="20383560"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3251,9 +3251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3267,7 +3267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="21336120"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3288,9 +3288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3304,7 +3304,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="22288320"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3325,9 +3325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3341,7 +3341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="23240520"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3362,9 +3362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3378,7 +3378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="24193080"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3399,9 +3399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3415,7 +3415,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="25146000"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3436,9 +3436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3452,7 +3452,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="26098200"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3473,9 +3473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3489,7 +3489,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="27051120"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3510,9 +3510,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3526,7 +3526,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="28003680"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3547,9 +3547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3563,7 +3563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="28955880"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3584,9 +3584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3600,7 +3600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="29908440"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3621,9 +3621,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3637,7 +3637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="30861000"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3658,9 +3658,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3674,7 +3674,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="31813920"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3695,9 +3695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3711,7 +3711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="32766120"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3732,9 +3732,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3748,7 +3748,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="33718320"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3769,9 +3769,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3785,7 +3785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="34670520"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3806,9 +3806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3822,7 +3822,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="35623440"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3843,9 +3843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3859,7 +3859,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="36576000"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3880,9 +3880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3896,7 +3896,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="37528560"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3917,9 +3917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3933,7 +3933,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="39433680"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3954,9 +3954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3970,7 +3970,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="38481480"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3991,9 +3991,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4007,7 +4007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="40386240"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4028,9 +4028,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4044,7 +4044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="41338440"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4065,9 +4065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4081,7 +4081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="42291000"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4102,9 +4102,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4118,7 +4118,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="43243560"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4139,9 +4139,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4155,7 +4155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="48006360"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4176,9 +4176,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4192,7 +4192,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="47053440"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4213,9 +4213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4229,7 +4229,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="44196480"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4250,9 +4250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4266,7 +4266,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="45149040"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4287,9 +4287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>951120</xdr:rowOff>
+      <xdr:rowOff>950760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4303,7 +4303,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="46101600"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4324,9 +4324,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4340,7 +4340,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="48958560"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4361,9 +4361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4377,7 +4377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="49911120"/>
-          <a:ext cx="950400" cy="948240"/>
+          <a:ext cx="950040" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4398,9 +4398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4414,7 +4414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="51816240"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4435,9 +4435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4451,7 +4451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="50863680"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4472,9 +4472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4488,7 +4488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="52768080"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4509,9 +4509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4525,7 +4525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="53720640"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4546,9 +4546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
+      <xdr:rowOff>949320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4562,7 +4562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="54672840"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4583,9 +4583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4599,7 +4599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="55626120"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4620,9 +4620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4636,7 +4636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="56578680"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4657,9 +4657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4673,7 +4673,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="68008320"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4694,9 +4694,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4710,7 +4710,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="67055760"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4731,9 +4731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4747,7 +4747,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="66103200"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4768,9 +4768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4784,7 +4784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="65150640"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4805,9 +4805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4821,7 +4821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="64198080"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4842,9 +4842,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4858,7 +4858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="62293320"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4879,9 +4879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4895,7 +4895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="63245520"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4916,9 +4916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4932,7 +4932,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="61340760"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4953,9 +4953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4969,7 +4969,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="60388560"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4990,9 +4990,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5006,7 +5006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="57530880"/>
-          <a:ext cx="950400" cy="950040"/>
+          <a:ext cx="950040" cy="949680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5027,9 +5027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5043,7 +5043,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="58483440"/>
-          <a:ext cx="950400" cy="950400"/>
+          <a:ext cx="950040" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5064,9 +5064,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>950040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5080,7 +5080,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="59434200"/>
-          <a:ext cx="950400" cy="952200"/>
+          <a:ext cx="950040" cy="951840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5103,7 +5103,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5168,7 +5168,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">SUM(E2:E73)</f>
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -5209,7 +5209,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -7821,7 +7821,7 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="n">
         <f aca="false">SUM(E2,E12,E3,E4,E42,E35,E9,E11,E6,E5,E43,E31)</f>
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -7830,7 +7830,7 @@
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">SUM(D76:D84)</f>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -7861,7 +7861,7 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="n">
         <f aca="false">SUM(E54,E3,E4,E6,E5,E7,E20,E25,E13,E16,E17,E10,E30,E18,E65,E14,E32,E53,E39,E36,E70,E33,E34,E61)</f>
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>

--- a/Players Fits and Nationalities/Fits.xlsx
+++ b/Players Fits and Nationalities/Fits.xlsx
@@ -85,6 +85,15 @@
     <t xml:space="preserve">Crown, Shoes, Tunic</t>
   </si>
   <si>
+    <t xml:space="preserve">11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">19.</t>
   </si>
   <si>
@@ -94,15 +103,6 @@
     <t xml:space="preserve">Magic Crown, Shoes</t>
   </si>
   <si>
-    <t xml:space="preserve">11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.</t>
   </si>
   <si>
@@ -121,6 +121,15 @@
     <t xml:space="preserve">Golden Cap, Shoes, King’s Cape</t>
   </si>
   <si>
+    <t xml:space="preserve">5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, King’s Cape</t>
+  </si>
+  <si>
     <t xml:space="preserve">12.</t>
   </si>
   <si>
@@ -130,15 +139,6 @@
     <t xml:space="preserve">Crown, Tunic, King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">5.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, King’s Cape</t>
-  </si>
-  <si>
     <t xml:space="preserve">27.</t>
   </si>
   <si>
@@ -166,6 +166,15 @@
     <t xml:space="preserve">Golden Cap</t>
   </si>
   <si>
+    <t xml:space="preserve">33.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoes</t>
+  </si>
+  <si>
     <t xml:space="preserve">32.</t>
   </si>
   <si>
@@ -175,15 +184,6 @@
     <t xml:space="preserve">Golden Cap, Shoes</t>
   </si>
   <si>
-    <t xml:space="preserve">33.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoes</t>
-  </si>
-  <si>
     <t xml:space="preserve">40.</t>
   </si>
   <si>
@@ -211,6 +211,15 @@
     <t xml:space="preserve">Magic Crown, Shoes, King’s Cape</t>
   </si>
   <si>
+    <t xml:space="preserve">26.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Shoes, Tunic</t>
+  </si>
+  <si>
     <t xml:space="preserve">43.</t>
   </si>
   <si>
@@ -220,6 +229,15 @@
     <t xml:space="preserve">Cap</t>
   </si>
   <si>
+    <t xml:space="preserve">31.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, King’s Cape</t>
+  </si>
+  <si>
     <t xml:space="preserve">18.</t>
   </si>
   <si>
@@ -229,13 +247,13 @@
     <t xml:space="preserve">Magic Crown, King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">31.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, King’s Cape</t>
+    <t xml:space="preserve">29 (Sub 4 fit).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Yellow Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
     <t xml:space="preserve">17.</t>
@@ -245,24 +263,6 @@
   </si>
   <si>
     <t xml:space="preserve">Magic Crown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Shoes, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (Sub 4 fit).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Yellow Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
     <t xml:space="preserve">25.</t>
@@ -932,7 +932,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1066,28 +1066,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>649</c:v>
+                  <c:v>652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>483</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>275</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>257</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>33</c:v>
@@ -1098,11 +1098,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="54015846"/>
-        <c:axId val="35543621"/>
+        <c:axId val="13465923"/>
+        <c:axId val="396790"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54015846"/>
+        <c:axId val="13465923"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1135,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35543621"/>
+        <c:crossAx val="396790"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35543621"/>
+        <c:axId val="396790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1186,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54015846"/>
+        <c:crossAx val="13465923"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,7 +1239,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1352,10 +1352,10 @@
                   <c:v>Crown, Shoes, Tunic</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Magic Crown, Shoes</c:v>
+                  <c:v>-</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-</c:v>
+                  <c:v>Magic Crown, Shoes</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Crown, Tunic</c:v>
@@ -1364,10 +1364,10 @@
                   <c:v>Golden Cap, Shoes, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Crown, Tunic, King’s Cape</c:v>
+                  <c:v>Crown, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Crown, King’s Cape</c:v>
+                  <c:v>Crown, Tunic, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Magic Crown, Shoes, Tunic, King’s Cape</c:v>
@@ -1379,10 +1379,10 @@
                   <c:v>Golden Cap</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Golden Cap, Shoes</c:v>
+                  <c:v>Shoes</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Shoes</c:v>
+                  <c:v>Golden Cap, Shoes</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Golden Cap, Shoes, Tunic, King’s Cape</c:v>
@@ -1394,22 +1394,22 @@
                   <c:v>Magic Crown, Shoes, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Cap</c:v>
+                  <c:v>Magic Crown, Shoes, Tunic</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Magic Crown, King’s Cape</c:v>
+                  <c:v>Cap</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Golden Cap, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Magic Crown</c:v>
+                  <c:v>Magic Crown, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Magic Crown, Shoes, Tunic</c:v>
+                  <c:v>Magic Crown, Yellow Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Magic Crown, Yellow Shoes, Tunic, King’s Cape</c:v>
+                  <c:v>Magic Crown</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>Magic Crown, Tunic, King’s Cape</c:v>
@@ -1562,16 +1562,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>264</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>31</c:v>
@@ -1580,19 +1580,19 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>17</c:v>
@@ -1601,16 +1601,16 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>12</c:v>
@@ -1619,22 +1619,22 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7</c:v>
@@ -1783,11 +1783,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="62032720"/>
-        <c:axId val="46799282"/>
+        <c:axId val="28429279"/>
+        <c:axId val="55721204"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62032720"/>
+        <c:axId val="28429279"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1856,7 +1856,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46799282"/>
+        <c:crossAx val="55721204"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1864,7 +1864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46799282"/>
+        <c:axId val="55721204"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62032720"/>
+        <c:crossAx val="28429279"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2007,9 +2007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>541440</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>654840</xdr:rowOff>
+      <xdr:rowOff>653760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2018,7 +2018,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11201400" y="71447040"/>
-        <a:ext cx="7161120" cy="4455360"/>
+        <a:ext cx="7160040" cy="4454280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2037,9 +2037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>547560</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>369000</xdr:rowOff>
+      <xdr:rowOff>367920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2048,7 +2048,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12002760" y="2276640"/>
-        <a:ext cx="20610360" cy="12760920"/>
+        <a:ext cx="20609280" cy="12759840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2067,9 +2067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2083,7 +2083,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="75247560"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2104,9 +2104,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2120,7 +2120,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="69532560"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2141,9 +2141,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2157,7 +2157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="70485120"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2178,9 +2178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2194,7 +2194,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="74295000"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2215,9 +2215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2231,7 +2231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="71437680"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2252,9 +2252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2268,7 +2268,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="72389880"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2289,9 +2289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2305,7 +2305,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="73342440"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2326,9 +2326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2342,7 +2342,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="77152680"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2363,9 +2363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2379,7 +2379,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="76200120"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2400,9 +2400,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2416,7 +2416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="76200120"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2437,9 +2437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2453,7 +2453,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="380880"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2474,9 +2474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2490,7 +2490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="1333440"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2511,9 +2511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2527,7 +2527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="2286000"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2548,9 +2548,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2564,7 +2564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="3238560"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2585,9 +2585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2601,7 +2601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="4191120"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2622,9 +2622,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2638,7 +2638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="5143320"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2659,9 +2659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2675,7 +2675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="6095880"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2696,9 +2696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2712,7 +2712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="7048440"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2733,9 +2733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2749,81 +2749,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="8001000"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="image1.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="8953920"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="image20.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="9906120"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2844,23 +2770,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="image36.jpg" descr=""/>
+        <xdr:cNvPr id="21" name="image36.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <a:blip r:embed="rId22"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="10858680"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2881,23 +2807,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="image39.jpg" descr=""/>
+        <xdr:cNvPr id="22" name="image39.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <a:blip r:embed="rId23"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="11810880"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2918,23 +2844,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>949320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="image35.jpg" descr=""/>
+        <xdr:cNvPr id="23" name="image35.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <a:blip r:embed="rId24"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="12763800"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2955,23 +2881,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="image42.jpg" descr=""/>
+        <xdr:cNvPr id="24" name="image42.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
+        <a:blip r:embed="rId25"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="13716000"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2992,23 +2918,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="image32.jpg" descr=""/>
+        <xdr:cNvPr id="25" name="image32.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
+        <a:blip r:embed="rId26"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="14668560"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3029,23 +2955,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="image45.jpg" descr=""/>
+        <xdr:cNvPr id="26" name="image45.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
+        <a:blip r:embed="rId27"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="15621120"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3066,23 +2992,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>949320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="image38.jpg" descr=""/>
+        <xdr:cNvPr id="27" name="image38.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
+        <a:blip r:embed="rId28"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="16574040"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3103,13 +3029,87 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="image3.jpg" descr=""/>
+        <xdr:cNvPr id="28" name="image3.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="17525880"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="image5.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="24193080"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="image37.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3118,8 +3118,1895 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="17525880"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:off x="3349080" y="25146000"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="image46.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="26098200"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="image33.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="27051120"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="image14.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="28003680"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="image43.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="28955880"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="image56.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="29908440"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="image51.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="30861000"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>949320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="image19.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="31813920"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="image62.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="32766120"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="image60.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="33718320"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="image47.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="34670520"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="image61.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="35623440"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="image52.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="36576000"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="image65.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="37528560"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="image4.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="39433680"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>949320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="image17.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="38481480"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>949320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="image28.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="40386240"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="image58.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="41338440"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="image50.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="42291000"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="image72.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="43243560"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>949320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="image40.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId51"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="48006360"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="image29.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId52"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="47053440"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>949320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="image25.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="44196480"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>949320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="image21.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="45149040"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>949680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="image23.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId55"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="46101600"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="image68.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="48958560"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>946800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="image16.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId57"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="49911120"/>
+          <a:ext cx="948960" cy="946800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>949320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="image44.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId58"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="51816240"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="image24.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId59"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="50863680"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="image54.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId60"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="52768080"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="image57.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId61"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="53720640"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>-720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="image66.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId62"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="54672840"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="image70.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId63"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="55626120"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="image71.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId64"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="56578680"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="image53.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId65"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="68008320"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="image59.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId66"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="67055760"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="image63.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId67"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="66103200"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="image49.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId68"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="65150640"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="image55.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId69"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="64198080"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="image64.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId70"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="62293320"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="image67.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId71"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="63245520"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="image69.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId72"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="61340760"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="image26.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId73"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="60388560"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="image18.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId74"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="57530880"/>
+          <a:ext cx="948960" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="image10.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId75"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="58483440"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="image13.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId76"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="59434200"/>
+          <a:ext cx="948960" cy="950760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="image32.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId77"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="13716000"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="image42.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId78"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="14668560"/>
+          <a:ext cx="949680" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="image15.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId79"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="5143680"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="image11.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId80"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="6095520"/>
+          <a:ext cx="949320" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>949320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="image1.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId81"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="9906480"/>
+          <a:ext cx="948960" cy="948960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>949320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="image20.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId82"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="8953560"/>
+          <a:ext cx="949320" cy="949320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3136,27 +5023,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="image34.jpg" descr=""/>
+        <xdr:cNvPr id="82" name="image22.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
+        <a:blip r:embed="rId83"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="18478440"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:off x="3349080" y="18478080"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3171,29 +5058,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-360</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="image2.jpg" descr=""/>
+        <xdr:cNvPr id="83" name="image34.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
+        <a:blip r:embed="rId84"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="19431360"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:off x="3348720" y="19431000"/>
+          <a:ext cx="949320" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3208,29 +5095,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-360</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="image27.jpg" descr=""/>
+        <xdr:cNvPr id="84" name="image27.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
+        <a:blip r:embed="rId85"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="20383560"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:off x="3348720" y="20383560"/>
+          <a:ext cx="949320" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3245,29 +5132,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-360</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
+      <xdr:rowOff>949320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="image31.jpg" descr=""/>
+        <xdr:cNvPr id="85" name="image2.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
+        <a:blip r:embed="rId86"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="21336120"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:off x="3348720" y="21336480"/>
+          <a:ext cx="949320" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3288,23 +5175,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="image22.jpg" descr=""/>
+        <xdr:cNvPr id="86" name="image41.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
+        <a:blip r:embed="rId87"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="22288320"/>
-          <a:ext cx="950040" cy="950040"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3319,1768 +5206,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-360</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="image41.jpg" descr=""/>
+        <xdr:cNvPr id="87" name="image31.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
+        <a:blip r:embed="rId88"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="23240520"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="image5.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="24193080"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="image37.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="25146000"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="image46.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="26098200"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="image33.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="27051120"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="image14.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId42"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="28003680"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="image43.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId43"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="28955880"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="image56.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId44"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="29908440"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="image51.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId45"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="30861000"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="image19.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId46"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="31813920"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="image62.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId47"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="32766120"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="image60.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId48"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="33718320"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="image47.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId49"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="34670520"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="image61.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId50"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="35623440"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="image52.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId51"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="36576000"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="image65.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId52"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="37528560"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="image4.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId53"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="39433680"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="image17.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId54"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="38481480"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="image28.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId55"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="40386240"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="image58.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId56"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="41338440"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="image50.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId57"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="42291000"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="image72.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId58"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="43243560"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="image40.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId59"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="48006360"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="image29.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId60"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="47053440"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="image25.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId61"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="44196480"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="image21.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId62"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="45149040"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="image23.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId63"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="46101600"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="image68.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId64"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="48958560"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="image16.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId65"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="49911120"/>
-          <a:ext cx="950040" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>950400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="image44.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId66"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="51816240"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="image24.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId67"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="50863680"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="image54.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId68"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="52768080"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="image57.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId69"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="53720640"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>-720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>949320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="image66.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId70"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="54672840"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="image70.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId71"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="55626120"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="image71.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId72"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="56578680"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="image53.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId73"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="68008320"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="image59.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId74"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="67055760"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="image63.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId75"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="66103200"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="image49.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId76"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="65150640"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="image55.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId77"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="64198080"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="image64.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId78"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="62293320"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="image67.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId79"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="63245520"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="image69.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId80"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="61340760"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="image26.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId81"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="60388560"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="image18.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId82"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="57530880"/>
-          <a:ext cx="950040" cy="949680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="image10.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId83"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="58483440"/>
-          <a:ext cx="950040" cy="950040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>950040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="image13.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId84"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="59434200"/>
-          <a:ext cx="950040" cy="951840"/>
+          <a:off x="3348720" y="23240880"/>
+          <a:ext cx="949320" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5102,8 +5250,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5135,11 +5283,8 @@
         <v>4</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -5150,11 +5295,6 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -5168,7 +5308,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
@@ -5176,7 +5316,7 @@
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">SUM(E2:E73)</f>
-        <v>992</v>
+        <v>1002</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -5209,7 +5349,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -5245,7 +5385,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -5281,7 +5421,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -5389,7 +5529,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -5461,7 +5601,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -5533,7 +5673,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -5641,7 +5781,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -5677,7 +5817,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -5749,14 +5889,9 @@
         <v>56</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -5764,14 +5899,6 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
@@ -5857,14 +5984,11 @@
         <v>65</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -5875,11 +5999,6 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
@@ -5893,15 +6012,11 @@
         <v>68</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -5910,12 +6025,6 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
@@ -5929,14 +6038,11 @@
         <v>71</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -5947,11 +6053,6 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
@@ -5965,14 +6066,11 @@
         <v>74</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -5983,11 +6081,6 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
@@ -6004,11 +6097,8 @@
         <v>8</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -6019,11 +6109,6 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
@@ -6037,7 +6122,7 @@
         <v>80</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -7820,8 +7905,8 @@
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="n">
-        <f aca="false">SUM(E2,E12,E3,E4,E42,E35,E9,E11,E6,E5,E43,E31)</f>
-        <v>649</v>
+        <f aca="false">SUM(E2,E11,E3,E4,E42,E35,E9,E12,E6,E5,E43,E31)</f>
+        <v>652</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -7830,7 +7915,7 @@
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">SUM(D76:D84)</f>
-        <v>2019</v>
+        <v>2044</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -7856,12 +7941,12 @@
         <v>186</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="n">
-        <f aca="false">SUM(E54,E3,E4,E6,E5,E7,E20,E25,E13,E16,E17,E10,E30,E18,E65,E14,E32,E53,E39,E36,E70,E33,E34,E61)</f>
-        <v>483</v>
+        <f aca="false">SUM(E54,E3,E4,E6,E5,E7,E20,E21,E13,E16,E17,E10,E30,E18,E65,E14,E32,E53,E39,E36,E70,E33,E34,E61)</f>
+        <v>489</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -7895,8 +7980,8 @@
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="n">
-        <f aca="false">SUM(E54,E63,E12,E4,E35,E11,E5,E31,E22,E20,E48,E49,E27,E13,E26,E23,E10,E28,E38,E18,E19,E65,E55,E32,E66,E57,E39,E58,E69,E70,E71,E72,E73,E34,E47,E60)</f>
-        <v>275</v>
+        <f aca="false">SUM(E54,E63,E11,E4,E35,E12,E5,E31,E24,E20,E48,E49,E27,E13,E25,E23,E10,E28,E38,E18,E19,E65,E55,E32,E66,E57,E39,E58,E69,E70,E71,E72,E73,E34,E47,E60)</f>
+        <v>280</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -7930,8 +8015,8 @@
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="n">
-        <f aca="false">SUM(E54,E62,E63,E9,E11,E6,E5,E43,E31,E50,E27,E25,E13,E51,E26,E29,E38,E30,E18,E44,E19,E45,E57,E53,E39,E67,E58,E37,E72,E33,E34,E40,E47,E41,E60,E61)</f>
-        <v>257</v>
+        <f aca="false">SUM(E54,E62,E63,E9,E12,E6,E5,E43,E31,E50,E27,E21,E13,E51,E25,E29,E38,E30,E18,E44,E19,E45,E57,E53,E39,E67,E58,E37,E72,E33,E34,E40,E47,E41,E60,E61)</f>
+        <v>260</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -7958,7 +8043,7 @@
     </row>
     <row r="80" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>47</v>
@@ -7966,7 +8051,7 @@
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="n">
         <f aca="false">SUM(E15,E23,E16,E10,E52,E28,E29,E38,E30,E18,E44,E19)</f>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -7996,12 +8081,12 @@
         <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="n">
-        <f aca="false">SUM(E24,E22,E7,E20,E64,E49,E50,E27,E25,E13,E51,E26)</f>
-        <v>104</v>
+        <f aca="false">SUM(E26,E24,E7,E20,E64,E49,E50,E27,E21,E13,E51,E25)</f>
+        <v>106</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -8035,7 +8120,7 @@
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="n">
-        <f aca="false">SUM(E62,E63,E42,E35,E43,E31,E64,E49,E51,E26,E52,E28,E44,E19,E56,E66,E67,E68,E58,E59,E71,E73,E40,E47)</f>
+        <f aca="false">SUM(E62,E63,E42,E35,E43,E31,E64,E49,E51,E25,E52,E28,E44,E19,E56,E66,E67,E68,E58,E59,E71,E73,E40,E47)</f>
         <v>63</v>
       </c>
       <c r="E82" s="3"/>
@@ -8066,12 +8151,12 @@
         <v>126</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="n">
-        <f aca="false">SUM(E21,E65,E55,E14,E32,E56,E66,E45,E57,E53,E39,E67,E58)</f>
-        <v>46</v>
+        <f aca="false">SUM(E22,E65,E55,E14,E32,E56,E66,E45,E57,E53,E39,E67,E58)</f>
+        <v>47</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>

--- a/Players Fits and Nationalities/Fits.xlsx
+++ b/Players Fits and Nationalities/Fits.xlsx
@@ -76,6 +76,15 @@
     <t xml:space="preserve">Crown, Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
+    <t xml:space="preserve">11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">13.</t>
   </si>
   <si>
@@ -85,15 +94,6 @@
     <t xml:space="preserve">Crown, Shoes, Tunic</t>
   </si>
   <si>
-    <t xml:space="preserve">11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
     <t xml:space="preserve">19.</t>
   </si>
   <si>
@@ -139,6 +139,15 @@
     <t xml:space="preserve">Crown, Tunic, King’s Cape</t>
   </si>
   <si>
+    <t xml:space="preserve">46.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap, Shoes</t>
+  </si>
+  <si>
     <t xml:space="preserve">27.</t>
   </si>
   <si>
@@ -148,13 +157,13 @@
     <t xml:space="preserve">Magic Crown, Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">46.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap, Shoes</t>
+    <t xml:space="preserve">33.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoes</t>
   </si>
   <si>
     <t xml:space="preserve">30.</t>
@@ -166,15 +175,6 @@
     <t xml:space="preserve">Golden Cap</t>
   </si>
   <si>
-    <t xml:space="preserve">33.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoes</t>
-  </si>
-  <si>
     <t xml:space="preserve">32.</t>
   </si>
   <si>
@@ -247,6 +247,15 @@
     <t xml:space="preserve">Magic Crown, King’s Cape</t>
   </si>
   <si>
+    <t xml:space="preserve">37.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Tunic</t>
+  </si>
+  <si>
     <t xml:space="preserve">29 (Sub 4 fit).</t>
   </si>
   <si>
@@ -283,15 +292,6 @@
     <t xml:space="preserve">Golden Cap, Yellow Shoes, King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">37.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Tunic</t>
-  </si>
-  <si>
     <t xml:space="preserve">39.</t>
   </si>
   <si>
@@ -337,6 +337,33 @@
     <t xml:space="preserve">Scholar’s Hat, Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
+    <t xml:space="preserve">59.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholar’s Hat, Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholar’s Hat, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunic</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.</t>
   </si>
   <si>
@@ -346,24 +373,6 @@
     <t xml:space="preserve">Crown, Yellow Shoes, King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">59.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholar’s Hat, Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholar’s Hat, Tunic</t>
-  </si>
-  <si>
     <t xml:space="preserve">38.</t>
   </si>
   <si>
@@ -389,15 +398,6 @@
   </si>
   <si>
     <t xml:space="preserve">Scholar’s Hat, Yellow Shoes, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunic</t>
   </si>
   <si>
     <t xml:space="preserve">8.</t>
@@ -932,7 +932,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1066,25 +1066,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>652</c:v>
+                  <c:v>658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>489</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>280</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>260</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>47</c:v>
@@ -1098,11 +1098,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="13465923"/>
-        <c:axId val="396790"/>
+        <c:axId val="80236956"/>
+        <c:axId val="26118084"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="13465923"/>
+        <c:axId val="80236956"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1135,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396790"/>
+        <c:crossAx val="26118084"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="396790"/>
+        <c:axId val="26118084"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1186,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13465923"/>
+        <c:crossAx val="80236956"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,7 +1239,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1349,10 +1349,10 @@
                   <c:v>Crown, Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Crown, Shoes, Tunic</c:v>
+                  <c:v>-</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-</c:v>
+                  <c:v>Crown, Shoes, Tunic</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Magic Crown, Shoes</c:v>
@@ -1370,16 +1370,16 @@
                   <c:v>Crown, Tunic, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Cap, Shoes</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Magic Crown, Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Cap, Shoes</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>Golden Cap</c:v>
+                  <c:v>Shoes</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Shoes</c:v>
+                  <c:v>Golden Cap</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Golden Cap, Shoes</c:v>
@@ -1406,19 +1406,19 @@
                   <c:v>Magic Crown, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>Golden Cap, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Magic Crown, Yellow Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>Magic Crown</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>Magic Crown, Tunic, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>Golden Cap, Yellow Shoes, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Golden Cap, Tunic</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Golden Cap, Shoes, Tunic</c:v>
@@ -1436,25 +1436,25 @@
                   <c:v>Scholar’s Hat, Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>Scholar’s Hat, Shoes</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Scholar’s Hat, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Tunic</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>Crown, Yellow Shoes, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>Scholar’s Hat, Shoes</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Scholar’s Hat, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>Golden Cap, Tunic, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>Cap, Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>Scholar’s Hat, Yellow Shoes, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Tunic</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>Crown, Yellow Shoes</c:v>
@@ -1562,13 +1562,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>266</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>39</c:v>
@@ -1577,7 +1577,7 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>28</c:v>
@@ -1589,13 +1589,13 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>17</c:v>
@@ -1604,7 +1604,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>13</c:v>
@@ -1613,7 +1613,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>11</c:v>
@@ -1631,10 +1631,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7</c:v>
@@ -1783,11 +1783,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="28429279"/>
-        <c:axId val="55721204"/>
+        <c:axId val="40008199"/>
+        <c:axId val="25869962"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="28429279"/>
+        <c:axId val="40008199"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1856,7 +1856,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55721204"/>
+        <c:crossAx val="25869962"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1864,7 +1864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55721204"/>
+        <c:axId val="25869962"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28429279"/>
+        <c:crossAx val="40008199"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2007,9 +2007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>541440</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>653760</xdr:rowOff>
+      <xdr:rowOff>653400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2018,7 +2018,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11201400" y="71447040"/>
-        <a:ext cx="7160040" cy="4454280"/>
+        <a:ext cx="7159680" cy="4453920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2037,9 +2037,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>547560</xdr:colOff>
+      <xdr:colOff>547200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>367920</xdr:rowOff>
+      <xdr:rowOff>367560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2048,7 +2048,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12002760" y="2276640"/>
-        <a:ext cx="20609280" cy="12759840"/>
+        <a:ext cx="20608920" cy="12759480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2067,9 +2067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2083,7 +2083,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="75247560"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2104,9 +2104,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2120,7 +2120,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="69532560"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2141,9 +2141,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2157,7 +2157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="70485120"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2178,9 +2178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2194,7 +2194,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="74295000"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2215,9 +2215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2231,7 +2231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="71437680"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2252,9 +2252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2268,7 +2268,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="72389880"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2289,9 +2289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2305,7 +2305,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="73342440"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2326,9 +2326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2342,7 +2342,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="77152680"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2363,9 +2363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2379,7 +2379,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="76200120"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2400,9 +2400,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2416,7 +2416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="76200120"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2437,9 +2437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2453,7 +2453,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="380880"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2474,9 +2474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2490,7 +2490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="1333440"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2511,9 +2511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2527,7 +2527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="2286000"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2548,9 +2548,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2564,7 +2564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="3238560"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2585,9 +2585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2601,7 +2601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="4191120"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2622,9 +2622,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2638,7 +2638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="5143320"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2659,9 +2659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2675,7 +2675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="6095880"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2696,9 +2696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2712,7 +2712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="7048440"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2733,9 +2733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2749,7 +2749,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="8001000"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2770,9 +2770,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2786,7 +2786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="10858680"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2807,9 +2807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2823,7 +2823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="11810880"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2844,9 +2844,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>949320</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2860,7 +2860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="12763800"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2881,9 +2881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2897,7 +2897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="13716000"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2918,9 +2918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2934,7 +2934,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="14668560"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2955,9 +2955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2971,7 +2971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="15621120"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2992,9 +2992,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>949320</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3008,7 +3008,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="16574040"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3029,9 +3029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3045,7 +3045,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="17525880"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3066,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3082,7 +3082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="24193080"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3103,9 +3103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3119,7 +3119,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="25146000"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3140,9 +3140,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3156,7 +3156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="26098200"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3177,9 +3177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3193,7 +3193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="27051120"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3214,9 +3214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3230,7 +3230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="28003680"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3251,9 +3251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3267,7 +3267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="28955880"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3288,9 +3288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3304,7 +3304,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="29908440"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3325,9 +3325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3341,7 +3341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="30861000"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3362,9 +3362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>949320</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3378,7 +3378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="31813920"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3399,9 +3399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3415,7 +3415,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="32766120"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3436,9 +3436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3452,7 +3452,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="33718320"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3473,9 +3473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3489,7 +3489,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="34670520"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3510,9 +3510,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3526,7 +3526,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="35623440"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3547,9 +3547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3563,7 +3563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="36576000"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3584,9 +3584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3600,7 +3600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="37528560"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3621,9 +3621,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3637,7 +3637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="39433680"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3658,9 +3658,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>949320</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3674,7 +3674,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="38481480"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3695,9 +3695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>949320</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3711,7 +3711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="40386240"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3732,9 +3732,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3748,7 +3748,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="41338440"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3769,9 +3769,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3785,7 +3785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="42291000"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3806,9 +3806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3822,7 +3822,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="43243560"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3843,9 +3843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>949320</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3859,7 +3859,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="48006360"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3880,9 +3880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3896,7 +3896,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="47053440"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3917,9 +3917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>949320</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3933,7 +3933,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="44196480"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3954,9 +3954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>949320</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3970,7 +3970,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="45149040"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3991,9 +3991,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>949680</xdr:rowOff>
+      <xdr:rowOff>949320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4007,7 +4007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="46101600"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4028,9 +4028,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4044,7 +4044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="48958560"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4065,9 +4065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>946800</xdr:rowOff>
+      <xdr:rowOff>946440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4081,7 +4081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="49911120"/>
-          <a:ext cx="948960" cy="946800"/>
+          <a:ext cx="948600" cy="946440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4102,9 +4102,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>949320</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4118,7 +4118,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="51816240"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4139,9 +4139,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4155,7 +4155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="50863680"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4176,9 +4176,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4192,7 +4192,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="52768080"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4213,9 +4213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4229,7 +4229,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="53720640"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4250,9 +4250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4266,7 +4266,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="54672840"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4287,9 +4287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4303,7 +4303,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="55626120"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4324,9 +4324,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4340,7 +4340,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="56578680"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4361,9 +4361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4377,7 +4377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="68008320"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4398,9 +4398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4414,7 +4414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="67055760"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4435,9 +4435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4451,7 +4451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="66103200"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4472,9 +4472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4488,7 +4488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="65150640"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4509,9 +4509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4525,7 +4525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="64198080"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4546,9 +4546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4562,7 +4562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="62293320"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4583,9 +4583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4599,7 +4599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="63245520"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4620,9 +4620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4636,7 +4636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="61340760"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4657,9 +4657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4673,7 +4673,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="60388560"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4694,9 +4694,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4710,7 +4710,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="57530880"/>
-          <a:ext cx="948960" cy="948600"/>
+          <a:ext cx="948600" cy="948240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4731,9 +4731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4747,7 +4747,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="58483440"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4768,9 +4768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4784,7 +4784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="59434200"/>
-          <a:ext cx="948960" cy="950760"/>
+          <a:ext cx="948600" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4805,9 +4805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4821,7 +4821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="13716000"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4842,9 +4842,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>68040</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4858,7 +4858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="14668560"/>
-          <a:ext cx="949680" cy="948960"/>
+          <a:ext cx="949320" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4879,9 +4879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4895,7 +4895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="5143680"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4916,9 +4916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4932,7 +4932,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="6095520"/>
-          <a:ext cx="949320" cy="948960"/>
+          <a:ext cx="948960" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4953,9 +4953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>949320</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4969,7 +4969,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="9906480"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4990,9 +4990,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>949320</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5006,7 +5006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="8953560"/>
-          <a:ext cx="949320" cy="949320"/>
+          <a:ext cx="948960" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5027,9 +5027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5043,7 +5043,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="18478080"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5064,9 +5064,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5080,7 +5080,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="19431000"/>
-          <a:ext cx="949320" cy="948960"/>
+          <a:ext cx="948960" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5101,9 +5101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5117,7 +5117,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="20383560"/>
-          <a:ext cx="949320" cy="948960"/>
+          <a:ext cx="948960" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5138,9 +5138,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>949320</xdr:rowOff>
+      <xdr:rowOff>948960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5154,7 +5154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="21336480"/>
-          <a:ext cx="949320" cy="948960"/>
+          <a:ext cx="948960" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5175,9 +5175,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5191,7 +5191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="22288320"/>
-          <a:ext cx="948960" cy="948960"/>
+          <a:ext cx="948600" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5212,9 +5212,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
+      <xdr:rowOff>948600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5228,7 +5228,821 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="23240880"/>
-          <a:ext cx="949320" cy="948960"/>
+          <a:ext cx="948960" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>-720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="image5.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId89"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="25145280"/>
+          <a:ext cx="948600" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="image37.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId90"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="26098200"/>
+          <a:ext cx="948600" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="image41.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId91"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="23240520"/>
+          <a:ext cx="948600" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="image31.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId92"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="24193080"/>
+          <a:ext cx="948960" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="image46.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId93"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="22288320"/>
+          <a:ext cx="948960" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="image47.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId94"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="35623080"/>
+          <a:ext cx="948600" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="image61.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId95"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="36576000"/>
+          <a:ext cx="948600" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="image52.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId96"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="37528560"/>
+          <a:ext cx="948600" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="image65.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId97"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="34670880"/>
+          <a:ext cx="948960" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="image36.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId98"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="11810880"/>
+          <a:ext cx="948600" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="image39.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId99"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="10858680"/>
+          <a:ext cx="948960" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="image62.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId100"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="31813560"/>
+          <a:ext cx="948600" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="image60.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId101"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="32765760"/>
+          <a:ext cx="948600" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>-720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="image47.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId102"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="33717960"/>
+          <a:ext cx="948600" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="image65.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId103"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="33718320"/>
+          <a:ext cx="948960" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="image19.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId104"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="34671240"/>
+          <a:ext cx="948960" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="image42.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId105"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="12763440"/>
+          <a:ext cx="948600" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="image32.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId106"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="12763440"/>
+          <a:ext cx="948600" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>948960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="image35.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId107"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="13716360"/>
+          <a:ext cx="948960" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="image12.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId108"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="5143680"/>
+          <a:ext cx="948600" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="image11.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId109"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="4190760"/>
+          <a:ext cx="948960" cy="948600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="image15.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId110"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="4191120"/>
+          <a:ext cx="948960" cy="948600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5250,8 +6064,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5283,8 +6097,6 @@
         <v>4</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -5292,9 +6104,6 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -5308,7 +6117,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
@@ -5316,7 +6125,7 @@
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">SUM(E2:E73)</f>
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -5349,7 +6158,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -5385,7 +6194,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -5493,13 +6302,11 @@
         <v>23</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -5511,11 +6318,6 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -5637,7 +6439,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5709,7 +6511,7 @@
         <v>41</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -5747,11 +6549,9 @@
       <c r="E14" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -5763,11 +6563,6 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
@@ -5783,11 +6578,9 @@
       <c r="E15" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -5799,11 +6592,6 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
@@ -5817,7 +6605,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -5896,9 +6684,6 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
@@ -5912,7 +6697,7 @@
         <v>59</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -5987,8 +6772,6 @@
         <v>11</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -5996,9 +6779,6 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
@@ -6015,16 +6795,10 @@
         <v>11</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
@@ -6041,8 +6815,6 @@
         <v>10</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -6050,9 +6822,6 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
@@ -6069,8 +6838,6 @@
         <v>9</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -6078,9 +6845,6 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
@@ -6094,11 +6858,9 @@
         <v>77</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -6106,9 +6868,6 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
@@ -6122,7 +6881,7 @@
         <v>80</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -6232,11 +6991,9 @@
       <c r="E29" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -6248,11 +7005,6 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
@@ -6448,11 +7200,9 @@
       <c r="E35" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -6464,11 +7214,6 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
@@ -6664,11 +7409,9 @@
       <c r="E41" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -6680,11 +7423,6 @@
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
@@ -7906,7 +8644,7 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="n">
         <f aca="false">SUM(E2,E11,E3,E4,E42,E35,E9,E12,E6,E5,E43,E31)</f>
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -7915,7 +8653,7 @@
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">SUM(D76:D84)</f>
-        <v>2044</v>
+        <v>2067</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -7941,12 +8679,12 @@
         <v>186</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="n">
         <f aca="false">SUM(E54,E3,E4,E6,E5,E7,E20,E21,E13,E16,E17,E10,E30,E18,E65,E14,E32,E53,E39,E36,E70,E33,E34,E61)</f>
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -7981,7 +8719,7 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="n">
         <f aca="false">SUM(E54,E63,E11,E4,E35,E12,E5,E31,E24,E20,E48,E49,E27,E13,E25,E23,E10,E28,E38,E18,E19,E65,E55,E32,E66,E57,E39,E58,E69,E70,E71,E72,E73,E34,E47,E60)</f>
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -8011,12 +8749,12 @@
         <v>5</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="n">
         <f aca="false">SUM(E54,E62,E63,E9,E12,E6,E5,E43,E31,E50,E27,E21,E13,E51,E25,E29,E38,E30,E18,E44,E19,E45,E57,E53,E39,E67,E58,E37,E72,E33,E34,E40,E47,E41,E60,E61)</f>
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -8046,7 +8784,7 @@
         <v>33</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="n">
@@ -8081,12 +8819,12 @@
         <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="n">
         <f aca="false">SUM(E26,E24,E7,E20,E64,E49,E50,E27,E21,E13,E51,E25)</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -8121,7 +8859,7 @@
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="n">
         <f aca="false">SUM(E62,E63,E42,E35,E43,E31,E64,E49,E51,E25,E52,E28,E44,E19,E56,E66,E67,E68,E58,E59,E71,E73,E40,E47)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -8183,7 +8921,7 @@
     </row>
     <row r="84" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>140</v>

--- a/Players Fits and Nationalities/Fits.xlsx
+++ b/Players Fits and Nationalities/Fits.xlsx
@@ -76,6 +76,15 @@
     <t xml:space="preserve">Crown, Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
+    <t xml:space="preserve">13.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, Shoes, Tunic</t>
+  </si>
+  <si>
     <t xml:space="preserve">11.</t>
   </si>
   <si>
@@ -85,15 +94,6 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">13.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, Shoes, Tunic</t>
-  </si>
-  <si>
     <t xml:space="preserve">19.</t>
   </si>
   <si>
@@ -139,6 +139,15 @@
     <t xml:space="preserve">Crown, Tunic, King’s Cape</t>
   </si>
   <si>
+    <t xml:space="preserve">27.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
     <t xml:space="preserve">46.</t>
   </si>
   <si>
@@ -148,15 +157,6 @@
     <t xml:space="preserve">Cap, Shoes</t>
   </si>
   <si>
-    <t xml:space="preserve">27.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Shoes, Tunic, King’s Cape</t>
-  </si>
-  <si>
     <t xml:space="preserve">33.</t>
   </si>
   <si>
@@ -166,6 +166,15 @@
     <t xml:space="preserve">Shoes</t>
   </si>
   <si>
+    <t xml:space="preserve">20.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Shoes, King’s Cape</t>
+  </si>
+  <si>
     <t xml:space="preserve">30.</t>
   </si>
   <si>
@@ -202,15 +211,6 @@
     <t xml:space="preserve">Golden Cap, Yellow Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">20.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Shoes, King’s Cape</t>
-  </si>
-  <si>
     <t xml:space="preserve">26.</t>
   </si>
   <si>
@@ -265,6 +265,15 @@
     <t xml:space="preserve">Magic Crown, Yellow Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
+    <t xml:space="preserve">16.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, Yellow Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
     <t xml:space="preserve">17.</t>
   </si>
   <si>
@@ -299,15 +308,6 @@
   </si>
   <si>
     <t xml:space="preserve">Golden Cap, Shoes, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, Yellow Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
     <t xml:space="preserve">47.</t>
@@ -932,7 +932,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1066,28 +1066,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>658</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>492</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>285</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>263</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>33</c:v>
@@ -1098,11 +1098,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="80236956"/>
-        <c:axId val="26118084"/>
+        <c:axId val="35995006"/>
+        <c:axId val="65249327"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80236956"/>
+        <c:axId val="35995006"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1135,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26118084"/>
+        <c:crossAx val="65249327"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26118084"/>
+        <c:axId val="65249327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1186,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80236956"/>
+        <c:crossAx val="35995006"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,7 +1239,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1289,6 +1289,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kolumna E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="3d85c6"/>
@@ -1301,7 +1312,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
@@ -1333,7 +1344,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$D$2:$D$73</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
@@ -1370,10 +1381,10 @@
                   <c:v>Crown, Tunic, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Cap, Shoes</c:v>
+                  <c:v>Magic Crown, Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Magic Crown, Shoes, Tunic, King’s Cape</c:v>
+                  <c:v>Cap, Shoes</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Shoes</c:v>
@@ -1557,15 +1568,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$E$2:$E$73</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>269</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>46</c:v>
@@ -1574,13 +1585,13 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>27</c:v>
@@ -1598,7 +1609,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14</c:v>
@@ -1783,11 +1794,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="40008199"/>
-        <c:axId val="25869962"/>
+        <c:axId val="51152361"/>
+        <c:axId val="49351182"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40008199"/>
+        <c:axId val="51152361"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1856,7 +1867,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25869962"/>
+        <c:crossAx val="49351182"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1864,7 +1875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25869962"/>
+        <c:axId val="49351182"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1954,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40008199"/>
+        <c:crossAx val="51152361"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2007,9 +2018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>653400</xdr:rowOff>
+      <xdr:rowOff>652680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2018,7 +2029,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11201400" y="71447040"/>
-        <a:ext cx="7159680" cy="4453920"/>
+        <a:ext cx="7158960" cy="4453200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2037,9 +2048,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>547200</xdr:colOff>
+      <xdr:colOff>546480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>367560</xdr:rowOff>
+      <xdr:rowOff>366840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2048,7 +2059,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12002760" y="2276640"/>
-        <a:ext cx="20608920" cy="12759480"/>
+        <a:ext cx="20608200" cy="12758760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2067,9 +2078,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2083,7 +2094,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="75247560"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2104,9 +2115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2120,7 +2131,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="69532560"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2141,9 +2152,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2157,7 +2168,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="70485120"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2178,9 +2189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2194,7 +2205,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="74295000"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2215,9 +2226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2231,7 +2242,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="71437680"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2252,9 +2263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2268,7 +2279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="72389880"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2289,9 +2300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2305,7 +2316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="73342440"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2326,9 +2337,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2342,7 +2353,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="77152680"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2363,9 +2374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2379,7 +2390,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="76200120"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2400,9 +2411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2416,7 +2427,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="76200120"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2437,9 +2448,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2453,7 +2464,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="380880"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2474,9 +2485,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2490,7 +2501,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="1333440"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2511,9 +2522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2527,7 +2538,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="2286000"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2548,9 +2559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2564,81 +2575,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="3238560"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="image12.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="4191120"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="image11.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="5143320"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2659,23 +2596,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="image15.jpg" descr=""/>
+        <xdr:cNvPr id="16" name="image15.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="6095880"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2696,13 +2633,87 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="image8.jpg" descr=""/>
+        <xdr:cNvPr id="17" name="image8.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="7048440"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="image35.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="12763800"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="image43.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2711,8 +2722,3301 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="7048440"/>
-          <a:ext cx="948600" cy="948600"/>
+          <a:off x="3349080" y="28955880"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="image56.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="29908440"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="image51.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="30861000"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="image19.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="31813920"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="image62.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="32766120"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="image60.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="33718320"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="image47.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="34670520"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="image61.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="35623440"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="image52.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="36576000"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="image65.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="37528560"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="image4.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="39433680"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="image17.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="38481480"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="image28.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="40386240"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="image58.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="41338440"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="image50.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="42291000"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="image72.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="43243560"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="image40.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="48006360"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="image29.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="47053440"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="image25.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="44196480"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="image21.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="45149040"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="image23.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="46101600"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="image68.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="48958560"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>945720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="image16.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="49911120"/>
+          <a:ext cx="947880" cy="945720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="image44.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="51816240"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="image24.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="50863680"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="image54.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="52768080"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="image57.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="53720640"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>-720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="image66.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="54672840"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="image70.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="55626120"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="image71.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="56578680"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="image53.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="68008320"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="image59.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId51"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="67055760"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="image63.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId52"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="66103200"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="image49.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="65150640"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="image55.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="64198080"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="image64.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId55"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="62293320"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="image67.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="63245520"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="image69.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId57"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="61340760"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="image26.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId58"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="60388560"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="image18.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId59"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="57530880"/>
+          <a:ext cx="947880" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="image10.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId60"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="58483440"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>950760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="image13.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId61"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="59434200"/>
+          <a:ext cx="947880" cy="949680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="image11.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId62"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="6095520"/>
+          <a:ext cx="948240" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="image22.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId63"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="18478080"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="image34.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId64"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="19431000"/>
+          <a:ext cx="948240" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="image27.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId65"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="20383560"/>
+          <a:ext cx="948240" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="image2.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId66"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="21336480"/>
+          <a:ext cx="948240" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="image41.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId67"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="22288320"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="image31.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId68"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="23240880"/>
+          <a:ext cx="948240" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="image41.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId69"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="23240520"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="image46.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId70"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="22288320"/>
+          <a:ext cx="948240" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="image47.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId71"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="35623080"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="image61.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId72"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="36576000"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="image52.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId73"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="37528560"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="image65.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId74"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="34670880"/>
+          <a:ext cx="948240" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="image62.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId75"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="31813560"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="image60.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId76"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="32765760"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>-720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="image47.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId77"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="33717960"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="image65.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId78"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="33718320"/>
+          <a:ext cx="948240" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="image19.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId79"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="34671240"/>
+          <a:ext cx="948240" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="image42.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId80"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="12763440"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="image32.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId81"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="12763440"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="image36.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId82"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="11810880"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="image39.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId83"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="11810880"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="image12.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId84"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="5143680"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="image11.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId85"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="5143320"/>
+          <a:ext cx="948240" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="image15.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId86"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="5143680"/>
+          <a:ext cx="948240" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="image11.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId87"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="4190760"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="image15.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId88"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="4191120"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="image12.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId89"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="4191120"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="image3.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId90"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="13716000"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="image42.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId91"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="14668560"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="image32.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId92"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="15621120"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="image45.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId93"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="16573680"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>948600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="image38.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId94"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="17526600"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="image32.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId95"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="14668560"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="image42.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId96"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="15621120"/>
+          <a:ext cx="948600" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="image35.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId97"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="14668920"/>
+          <a:ext cx="948240" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="image14.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId98"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="24193440"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="image5.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId99"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="25145640"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="image37.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId100"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="26098560"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="image46.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId101"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="27050760"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="image33.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId102"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="28003680"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>-720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="image5.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId103"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="26097840"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="image37.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId104"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="27050760"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="image31.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId105"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="25145640"/>
+          <a:ext cx="948240" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="image39.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId106"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="10858680"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="image36.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId107"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="10858680"/>
+          <a:ext cx="947880" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="image1.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId108"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="9906480"/>
+          <a:ext cx="948240" cy="947880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="image20.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId109"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="8953560"/>
+          <a:ext cx="948240" cy="948240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2733,3306 +6037,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="image48.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="8001000"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="image36.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="10858680"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="image39.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="11810880"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="image35.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="12763800"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="image42.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="13716000"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="image32.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="14668560"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="image45.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="15621120"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="image38.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="16574040"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="image3.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="17525880"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="image5.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="24193080"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="image37.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="25146000"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="image46.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="26098200"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="image33.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="27051120"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="image14.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="28003680"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="image43.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId35"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="28955880"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="image56.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="29908440"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="image51.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId37"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="30861000"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="image19.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="31813920"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="image62.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="32766120"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="image60.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="33718320"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="image47.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="34670520"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="image61.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId42"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="35623440"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="image52.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId43"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="36576000"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="image65.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId44"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="37528560"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="image4.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId45"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="39433680"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="image17.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId46"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="38481480"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="image28.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId47"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="40386240"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="image58.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId48"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="41338440"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="image50.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId49"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="42291000"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="image72.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId50"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="43243560"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="image40.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId51"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="48006360"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="image29.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId52"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="47053440"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="image25.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId53"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="44196480"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="image21.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId54"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="45149040"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>949320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="image23.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId55"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="46101600"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="image68.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId56"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="48958560"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>946440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="image16.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId57"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="49911120"/>
-          <a:ext cx="948600" cy="946440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="image44.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId58"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="51816240"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="image24.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId59"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="50863680"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="image54.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId60"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="52768080"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="image57.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId61"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="53720640"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>-720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>58</xdr:row>
       <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="image66.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId62"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="54672840"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="image70.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId63"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="55626120"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="image71.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId64"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="56578680"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="image53.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId65"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="68008320"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="image59.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId66"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="67055760"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="image63.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId67"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="66103200"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="image49.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId68"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="65150640"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="image55.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId69"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="64198080"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="image64.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId70"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="62293320"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="image67.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId71"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="63245520"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="image69.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId72"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="61340760"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="image26.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId73"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="60388560"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="image18.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId74"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="57530880"/>
-          <a:ext cx="948600" cy="948240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="image10.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId75"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="58483440"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="image13.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId76"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="59434200"/>
-          <a:ext cx="948600" cy="950400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="image32.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId77"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="13716000"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="image42.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId78"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="14668560"/>
-          <a:ext cx="949320" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="image15.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId79"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="5143680"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="image11.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId80"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="6095520"/>
-          <a:ext cx="948960" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="image1.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId81"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="9906480"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="image20.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId82"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="8953560"/>
-          <a:ext cx="948960" cy="948960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="image22.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId83"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="18478080"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="image34.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId84"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="19431000"/>
-          <a:ext cx="948960" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="image27.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId85"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="20383560"/>
-          <a:ext cx="948960" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="image2.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId86"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="21336480"/>
-          <a:ext cx="948960" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="image41.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId87"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="22288320"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="image31.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId88"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="23240880"/>
-          <a:ext cx="948960" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>-720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="image5.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId89"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="25145280"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="image37.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId90"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="26098200"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="image41.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId91"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="23240520"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="image31.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId92"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="24193080"/>
-          <a:ext cx="948960" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="image46.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId93"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="22288320"/>
-          <a:ext cx="948960" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="image47.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId94"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="35623080"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="image61.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId95"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="36576000"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="image52.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId96"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="37528560"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="image65.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId97"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="34670880"/>
-          <a:ext cx="948960" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="image36.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId98"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="11810880"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="image39.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId99"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="10858680"/>
-          <a:ext cx="948960" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="image62.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId100"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="31813560"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="image60.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId101"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="32765760"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>-720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="image47.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId102"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="33717960"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="image65.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId103"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="33718320"/>
-          <a:ext cx="948960" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="image19.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId104"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="34671240"/>
-          <a:ext cx="948960" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="image42.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId105"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="12763440"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="image32.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId106"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="12763440"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>948960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="image35.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId107"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="13716360"/>
-          <a:ext cx="948960" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="image12.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId108"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="5143680"/>
-          <a:ext cx="948600" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="image11.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId109"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="4190760"/>
-          <a:ext cx="948960" cy="948600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="image15.jpg" descr=""/>
+        <xdr:cNvPr id="109" name="image48.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6041,8 +6052,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="4191120"/>
-          <a:ext cx="948960" cy="948600"/>
+          <a:off x="3349080" y="8001000"/>
+          <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6064,8 +6075,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6098,12 +6109,6 @@
       </c>
       <c r="F1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -6117,7 +6122,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
@@ -6125,7 +6130,7 @@
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">SUM(E2:E73)</f>
-        <v>1012</v>
+        <v>1023</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -6161,11 +6166,6 @@
         <v>190</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6173,14 +6173,6 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -6266,7 +6258,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -6304,9 +6296,6 @@
       <c r="E7" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -6314,10 +6303,6 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -6331,7 +6316,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -6511,13 +6496,8 @@
         <v>41</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+        <v>19</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -6527,13 +6507,6 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
@@ -6547,11 +6520,8 @@
         <v>44</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
+        <v>18</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -6559,10 +6529,6 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
@@ -6578,9 +6544,6 @@
       <c r="E15" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -6588,10 +6551,6 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
@@ -6605,7 +6564,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -6680,10 +6639,8 @@
         <v>13</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
@@ -6733,7 +6690,7 @@
         <v>62</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -6769,16 +6726,10 @@
         <v>65</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
@@ -6795,10 +6746,6 @@
         <v>11</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
@@ -6816,12 +6763,6 @@
       </c>
       <c r="F23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
@@ -6839,12 +6780,6 @@
       </c>
       <c r="F24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
@@ -6862,12 +6797,6 @@
       </c>
       <c r="F25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
@@ -6991,9 +6920,6 @@
       <c r="E29" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -7001,10 +6927,6 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
@@ -7054,7 +6976,7 @@
         <v>95</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -7200,9 +7122,6 @@
       <c r="E35" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -7210,10 +7129,6 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
@@ -7409,9 +7324,6 @@
       <c r="E41" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -7419,10 +7331,6 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
@@ -8643,8 +8551,8 @@
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="n">
-        <f aca="false">SUM(E2,E11,E3,E4,E42,E35,E9,E12,E6,E5,E43,E31)</f>
-        <v>658</v>
+        <f aca="false">SUM(E2,E13,E3,E4,E42,E35,E9,E13,E7,E5,E43,E27)</f>
+        <v>662</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -8653,7 +8561,7 @@
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">SUM(D76:D84)</f>
-        <v>2067</v>
+        <v>2077</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -8683,8 +8591,8 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="n">
-        <f aca="false">SUM(E54,E3,E4,E6,E5,E7,E20,E21,E13,E16,E17,E10,E30,E18,E65,E14,E32,E53,E39,E36,E70,E33,E34,E61)</f>
-        <v>492</v>
+        <f aca="false">SUM(E54,E3,E4,E7,E5,E6,E16,E21,E14,E16,E17,E13,E30,E18,E65,E13,E32,E53,E39,E36,E70,E33,E34,E61)</f>
+        <v>494</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -8718,8 +8626,8 @@
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="n">
-        <f aca="false">SUM(E54,E63,E11,E4,E35,E12,E5,E31,E24,E20,E48,E49,E27,E13,E25,E23,E10,E28,E38,E18,E19,E65,E55,E32,E66,E57,E39,E58,E69,E70,E71,E72,E73,E34,E47,E60)</f>
-        <v>285</v>
+        <f aca="false">SUM(E54,E63,E13,E4,E35,E13,E5,E27,E24,E16,E48,E49,E27,E14,E25,E23,E13,E28,E38,E18,E19,E65,E55,E32,E66,E57,E39,E58,E69,E70,E71,E72,E73,E34,E47,E60)</f>
+        <v>284</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -8753,8 +8661,8 @@
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="n">
-        <f aca="false">SUM(E54,E62,E63,E9,E12,E6,E5,E43,E31,E50,E27,E21,E13,E51,E25,E29,E38,E30,E18,E44,E19,E45,E57,E53,E39,E67,E58,E37,E72,E33,E34,E40,E47,E41,E60,E61)</f>
-        <v>263</v>
+        <f aca="false">SUM(E54,E62,E63,E9,E13,E7,E5,E43,E27,E50,E27,E21,E14,E51,E25,E29,E38,E30,E18,E44,E19,E45,E57,E53,E39,E67,E58,E37,E72,E33,E34,E40,E47,E41,E60,E61)</f>
+        <v>265</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -8784,12 +8692,12 @@
         <v>33</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="n">
-        <f aca="false">SUM(E15,E23,E16,E10,E52,E28,E29,E38,E30,E18,E44,E19)</f>
-        <v>114</v>
+        <f aca="false">SUM(E15,E23,E16,E13,E52,E28,E29,E38,E30,E18,E44,E19)</f>
+        <v>111</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -8819,12 +8727,12 @@
         <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="n">
-        <f aca="false">SUM(E26,E24,E7,E20,E64,E49,E50,E27,E21,E13,E51,E25)</f>
-        <v>110</v>
+        <f aca="false">SUM(E26,E24,E6,E16,E64,E49,E50,E27,E21,E14,E51,E25)</f>
+        <v>113</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -8858,8 +8766,8 @@
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="n">
-        <f aca="false">SUM(E62,E63,E42,E35,E43,E31,E64,E49,E51,E25,E52,E28,E44,E19,E56,E66,E67,E68,E58,E59,E71,E73,E40,E47)</f>
-        <v>65</v>
+        <f aca="false">SUM(E62,E63,E42,E35,E43,E27,E64,E49,E51,E25,E52,E28,E44,E19,E56,E66,E67,E68,E58,E59,E71,E73,E40,E47)</f>
+        <v>66</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -8893,8 +8801,8 @@
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="n">
-        <f aca="false">SUM(E22,E65,E55,E14,E32,E56,E66,E45,E57,E53,E39,E67,E58)</f>
-        <v>47</v>
+        <f aca="false">SUM(E22,E65,E55,E13,E32,E56,E66,E45,E57,E53,E39,E67,E58)</f>
+        <v>49</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>

--- a/Players Fits and Nationalities/Fits.xlsx
+++ b/Players Fits and Nationalities/Fits.xlsx
@@ -76,6 +76,15 @@
     <t xml:space="preserve">Crown, Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
+    <t xml:space="preserve">11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">13.</t>
   </si>
   <si>
@@ -83,15 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">Crown, Shoes, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">19.</t>
@@ -932,7 +932,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1069,7 +1069,7 @@
                   <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>494</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>284</c:v>
@@ -1081,7 +1081,7 @@
                   <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>66</c:v>
@@ -1098,11 +1098,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="35995006"/>
-        <c:axId val="65249327"/>
+        <c:axId val="28418315"/>
+        <c:axId val="76647621"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="35995006"/>
+        <c:axId val="28418315"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1135,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65249327"/>
+        <c:crossAx val="76647621"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65249327"/>
+        <c:axId val="76647621"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1186,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35995006"/>
+        <c:crossAx val="28418315"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,7 +1239,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1794,11 +1794,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="51152361"/>
-        <c:axId val="49351182"/>
+        <c:axId val="53872873"/>
+        <c:axId val="57982994"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51152361"/>
+        <c:axId val="53872873"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1867,7 +1867,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49351182"/>
+        <c:crossAx val="57982994"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1875,7 +1875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49351182"/>
+        <c:axId val="57982994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +1954,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51152361"/>
+        <c:crossAx val="53872873"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2018,9 +2018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>540360</xdr:colOff>
+      <xdr:colOff>540000</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>652680</xdr:rowOff>
+      <xdr:rowOff>652320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2029,7 +2029,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11201400" y="71447040"/>
-        <a:ext cx="7158960" cy="4453200"/>
+        <a:ext cx="7158600" cy="4452840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2048,9 +2048,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>546480</xdr:colOff>
+      <xdr:colOff>546120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>366840</xdr:rowOff>
+      <xdr:rowOff>366480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2059,7 +2059,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12002760" y="2276640"/>
-        <a:ext cx="20608200" cy="12758760"/>
+        <a:ext cx="20607840" cy="12758400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2078,9 +2078,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2094,7 +2094,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="75247560"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2115,9 +2115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2131,7 +2131,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="69532560"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2152,9 +2152,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2168,7 +2168,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="70485120"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2189,9 +2189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2205,7 +2205,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="74295000"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2226,9 +2226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2242,7 +2242,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="71437680"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2263,9 +2263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2279,7 +2279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="72389880"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2300,9 +2300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2316,7 +2316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="73342440"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2337,9 +2337,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2353,7 +2353,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="77152680"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2374,9 +2374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2390,7 +2390,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="76200120"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2411,9 +2411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2427,7 +2427,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="76200120"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2448,9 +2448,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2464,7 +2464,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="380880"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2485,9 +2485,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2501,7 +2501,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="1333440"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2522,9 +2522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2538,7 +2538,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="2286000"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2559,9 +2559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2575,7 +2575,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="3238560"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2596,9 +2596,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2612,7 +2612,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="6095880"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2633,9 +2633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2649,7 +2649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="7048440"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2670,9 +2670,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2686,7 +2686,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="12763800"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2707,9 +2707,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2723,7 +2723,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="28955880"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2744,9 +2744,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2760,7 +2760,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="29908440"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2781,9 +2781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2797,7 +2797,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="30861000"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2818,9 +2818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2834,7 +2834,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="31813920"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2855,9 +2855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2871,7 +2871,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="32766120"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2892,9 +2892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2908,7 +2908,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="33718320"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2929,9 +2929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2945,7 +2945,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="34670520"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2966,9 +2966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2982,7 +2982,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="35623440"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3003,9 +3003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3019,7 +3019,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="36576000"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3040,9 +3040,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3056,7 +3056,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="37528560"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3077,9 +3077,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3093,7 +3093,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="39433680"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3114,9 +3114,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3130,7 +3130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="38481480"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3151,9 +3151,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3167,7 +3167,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="40386240"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3188,9 +3188,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3204,7 +3204,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="41338440"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3225,9 +3225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3241,7 +3241,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="42291000"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3262,9 +3262,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3278,7 +3278,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="43243560"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3299,9 +3299,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3315,7 +3315,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="48006360"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3336,9 +3336,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3352,7 +3352,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="47053440"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3373,9 +3373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3389,7 +3389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="44196480"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3410,9 +3410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3426,7 +3426,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="45149040"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3447,9 +3447,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
+      <xdr:rowOff>948240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3463,7 +3463,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="46101600"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3484,9 +3484,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3500,7 +3500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="48958560"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3521,9 +3521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>945720</xdr:rowOff>
+      <xdr:rowOff>945360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3537,7 +3537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="49911120"/>
-          <a:ext cx="947880" cy="945720"/>
+          <a:ext cx="947520" cy="945360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3558,9 +3558,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3574,7 +3574,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="51816240"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3595,9 +3595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3611,7 +3611,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="50863680"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3632,9 +3632,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3648,7 +3648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="52768080"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3669,9 +3669,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3685,7 +3685,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="53720640"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3706,9 +3706,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
+      <xdr:rowOff>946800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3722,7 +3722,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="54672840"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3743,9 +3743,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3759,7 +3759,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="55626120"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3780,9 +3780,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3796,7 +3796,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="56578680"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3817,9 +3817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3833,7 +3833,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="68008320"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3854,9 +3854,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3870,7 +3870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="67055760"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3891,9 +3891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3907,7 +3907,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="66103200"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3928,9 +3928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3944,7 +3944,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="65150640"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3965,9 +3965,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3981,7 +3981,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="64198080"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4002,9 +4002,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4018,7 +4018,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="62293320"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4039,9 +4039,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4055,7 +4055,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="63245520"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4076,9 +4076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4092,7 +4092,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="61340760"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4113,9 +4113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4129,7 +4129,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="60388560"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4150,9 +4150,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4166,7 +4166,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="57530880"/>
-          <a:ext cx="947880" cy="947520"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4187,9 +4187,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4203,7 +4203,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="58483440"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4224,9 +4224,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4240,7 +4240,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="59434200"/>
-          <a:ext cx="947880" cy="949680"/>
+          <a:ext cx="947520" cy="949320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4261,9 +4261,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4277,7 +4277,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="6095520"/>
-          <a:ext cx="948240" cy="947880"/>
+          <a:ext cx="947880" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4298,9 +4298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4314,7 +4314,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="18478080"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4335,9 +4335,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4351,7 +4351,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="19431000"/>
-          <a:ext cx="948240" cy="947880"/>
+          <a:ext cx="947880" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4372,9 +4372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4388,7 +4388,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="20383560"/>
-          <a:ext cx="948240" cy="947880"/>
+          <a:ext cx="947880" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4409,9 +4409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4425,7 +4425,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="21336480"/>
-          <a:ext cx="948240" cy="947880"/>
+          <a:ext cx="947880" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4446,9 +4446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4462,7 +4462,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="22288320"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4483,9 +4483,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4499,7 +4499,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="23240880"/>
-          <a:ext cx="948240" cy="947880"/>
+          <a:ext cx="947880" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4520,9 +4520,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4536,7 +4536,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="23240520"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4557,9 +4557,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4573,7 +4573,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="22288320"/>
-          <a:ext cx="948240" cy="947880"/>
+          <a:ext cx="947880" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4594,9 +4594,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4610,7 +4610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="35623080"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4631,9 +4631,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4647,7 +4647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="36576000"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4668,9 +4668,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4684,7 +4684,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="37528560"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4705,9 +4705,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4721,7 +4721,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="34670880"/>
-          <a:ext cx="948240" cy="947880"/>
+          <a:ext cx="947880" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4742,9 +4742,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4758,7 +4758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="31813560"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4779,9 +4779,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4795,7 +4795,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="32765760"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4816,9 +4816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
+      <xdr:rowOff>946800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4832,7 +4832,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="33717960"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4853,9 +4853,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4869,7 +4869,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="33718320"/>
-          <a:ext cx="948240" cy="947880"/>
+          <a:ext cx="947880" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4890,9 +4890,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
+      <xdr:rowOff>947880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4906,7 +4906,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="34671240"/>
-          <a:ext cx="948240" cy="947880"/>
+          <a:ext cx="947880" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4927,9 +4927,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4943,7 +4943,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="12763440"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4964,9 +4964,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>66240</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4980,7 +4980,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="12763440"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5001,9 +5001,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5017,7 +5017,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="11810880"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5038,9 +5038,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5054,6 +5054,783 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="11810880"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="image11.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId84"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="4190760"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="image3.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId85"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="13716000"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="image42.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId86"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="14668560"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="image32.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId87"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="15621120"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="image45.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId88"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="16573680"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>948240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="image38.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId89"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="17526600"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="image32.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId90"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="14668560"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="image42.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId91"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="15621120"/>
+          <a:ext cx="948240" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="image35.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId92"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="14668920"/>
+          <a:ext cx="947880" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="image14.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId93"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="24193440"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="image5.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId94"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="25145640"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="image37.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId95"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="26098560"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="image46.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId96"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="27050760"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="image33.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId97"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="28003680"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>-720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>946800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="image5.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId98"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="26097840"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="image37.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId99"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="27050760"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="image31.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId100"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="25145640"/>
+          <a:ext cx="947880" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="image39.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId101"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="10858680"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="image36.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId102"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="10858680"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="image1.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId103"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="9906480"/>
+          <a:ext cx="947880" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="image20.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId104"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="8953560"/>
           <a:ext cx="947880" cy="947880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5070,28 +5847,28 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="image12.jpg" descr=""/>
+        <xdr:cNvPr id="104" name="image48.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId84"/>
+        <a:blip r:embed="rId105"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="5143680"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:off x="3349080" y="8001000"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5112,23 +5889,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="image11.jpg" descr=""/>
+        <xdr:cNvPr id="105" name="image11.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId85"/>
+        <a:blip r:embed="rId106"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="5143320"/>
-          <a:ext cx="948240" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5149,23 +5926,97 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="image15.jpg" descr=""/>
+        <xdr:cNvPr id="106" name="image15.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId86"/>
+        <a:blip r:embed="rId107"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="5143680"/>
-          <a:ext cx="948240" cy="947880"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="image12.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId108"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="5143680"/>
+          <a:ext cx="947520" cy="947520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="image12.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId109"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="4191120"/>
+          <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5188,21 +6039,21 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>66240</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="image11.jpg" descr=""/>
+        <xdr:cNvPr id="109" name="image11.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId87"/>
+        <a:blip r:embed="rId110"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="4190760"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947880" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5225,835 +6076,21 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>66240</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="image15.jpg" descr=""/>
+        <xdr:cNvPr id="110" name="image15.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId88"/>
+        <a:blip r:embed="rId111"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="4191120"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="image12.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId89"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="4191120"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="image3.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId90"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="13716000"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="image42.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId91"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="14668560"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="image32.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId92"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="15621120"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="image45.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId93"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="16573680"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>948600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="image38.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId94"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="17526600"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="image32.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId95"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="14668560"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="image42.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId96"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="15621120"/>
-          <a:ext cx="948600" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="image35.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId97"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="14668920"/>
-          <a:ext cx="948240" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="image14.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId98"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="24193440"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="image5.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId99"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="25145640"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="image37.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId100"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="26098560"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="image46.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId101"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="27050760"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="image33.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId102"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="28003680"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>-720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="image5.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId103"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="26097840"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="image37.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId104"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="27050760"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="image31.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId105"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="25145640"/>
-          <a:ext cx="948240" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="image39.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId106"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="10858680"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="image36.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId107"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="10858680"/>
-          <a:ext cx="947880" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="image1.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId108"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="9906480"/>
-          <a:ext cx="948240" cy="947880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="image20.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId109"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="8953560"/>
-          <a:ext cx="948240" cy="948240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="image48.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId110"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="8001000"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:ext cx="947880" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6075,8 +6112,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6108,7 +6145,6 @@
         <v>4</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="L1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -6130,7 +6166,7 @@
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">SUM(E2:E73)</f>
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -6170,9 +6206,6 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -6258,7 +6291,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -6301,8 +6334,6 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -6505,8 +6536,6 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
@@ -6527,8 +6556,6 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
@@ -6549,8 +6576,6 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
@@ -6639,8 +6664,6 @@
         <v>13</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
@@ -6729,7 +6752,6 @@
         <v>12</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="L21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
@@ -6762,7 +6784,6 @@
         <v>10</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="L23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
@@ -6779,7 +6800,6 @@
         <v>9</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="L24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
@@ -6796,7 +6816,6 @@
         <v>9</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="L25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
@@ -6925,8 +6944,6 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
@@ -7127,8 +7144,6 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
@@ -7329,8 +7344,6 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
@@ -8561,7 +8574,7 @@
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">SUM(D76:D84)</f>
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -8591,8 +8604,8 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="n">
-        <f aca="false">SUM(E54,E3,E4,E7,E5,E6,E16,E21,E14,E16,E17,E13,E30,E18,E65,E13,E32,E53,E39,E36,E70,E33,E34,E61)</f>
-        <v>494</v>
+        <f aca="false">SUM(E54,E3,E4,E7,E5,E7,E16,E21,E14,E16,E17,E13,E30,E18,E65,E13,E32,E53,E39,E36,E70,E33,E34,E61)</f>
+        <v>493</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -8731,8 +8744,8 @@
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="n">
-        <f aca="false">SUM(E26,E24,E6,E16,E64,E49,E50,E27,E21,E14,E51,E25)</f>
-        <v>113</v>
+        <f aca="false">SUM(E26,E24,E7,E16,E64,E49,E50,E27,E21,E14,E51,E25)</f>
+        <v>112</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>

--- a/Players Fits and Nationalities/Fits.xlsx
+++ b/Players Fits and Nationalities/Fits.xlsx
@@ -157,6 +157,51 @@
     <t xml:space="preserve">Cap, Shoes</t>
   </si>
   <si>
+    <t xml:space="preserve">42.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Yellow Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Shoes, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap</t>
+  </si>
+  <si>
     <t xml:space="preserve">33.</t>
   </si>
   <si>
@@ -166,51 +211,6 @@
     <t xml:space="preserve">Shoes</t>
   </si>
   <si>
-    <t xml:space="preserve">20.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Shoes, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Shoes, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Yellow Shoes, Tunic, King’s Cape</t>
-  </si>
-  <si>
     <t xml:space="preserve">26.</t>
   </si>
   <si>
@@ -256,6 +256,15 @@
     <t xml:space="preserve">Golden Cap, Tunic</t>
   </si>
   <si>
+    <t xml:space="preserve">25.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Tunic, King’s Cape</t>
+  </si>
+  <si>
     <t xml:space="preserve">29 (Sub 4 fit).</t>
   </si>
   <si>
@@ -274,6 +283,24 @@
     <t xml:space="preserve">Crown, Yellow Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
+    <t xml:space="preserve">36.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Yellow Shoes, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Shoes, Tunic</t>
+  </si>
+  <si>
     <t xml:space="preserve">17.</t>
   </si>
   <si>
@@ -283,33 +310,6 @@
     <t xml:space="preserve">Magic Crown</t>
   </si>
   <si>
-    <t xml:space="preserve">25.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Tunic, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Yellow Shoes, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Shoes, Tunic</t>
-  </si>
-  <si>
     <t xml:space="preserve">47.</t>
   </si>
   <si>
@@ -319,6 +319,15 @@
     <t xml:space="preserve">Cap, Shoes, King’s Cape</t>
   </si>
   <si>
+    <t xml:space="preserve">63.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholar’s Hat, Tunic</t>
+  </si>
+  <si>
     <t xml:space="preserve">65.</t>
   </si>
   <si>
@@ -337,6 +346,15 @@
     <t xml:space="preserve">Scholar’s Hat, Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
+    <t xml:space="preserve">9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown, Yellow Shoes, King’s Cape</t>
+  </si>
+  <si>
     <t xml:space="preserve">59.</t>
   </si>
   <si>
@@ -346,15 +364,6 @@
     <t xml:space="preserve">Scholar’s Hat, Shoes</t>
   </si>
   <si>
-    <t xml:space="preserve">63.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholar’s Hat, Tunic</t>
-  </si>
-  <si>
     <t xml:space="preserve">70.</t>
   </si>
   <si>
@@ -364,15 +373,6 @@
     <t xml:space="preserve">Tunic</t>
   </si>
   <si>
-    <t xml:space="preserve">9.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown, Yellow Shoes, King’s Cape</t>
-  </si>
-  <si>
     <t xml:space="preserve">38.</t>
   </si>
   <si>
@@ -454,6 +454,60 @@
     <t xml:space="preserve">Scholar’s Hat, Yellow Shoes, Tunic, King’s Cape</t>
   </si>
   <si>
+    <t xml:space="preserve">23.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Yellow Shoes, King’s Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Crown, Yellow Shoes, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Cap, Yellow Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap, Shoes, Tunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoes, Tunic, King’s Cape</t>
+  </si>
+  <si>
     <t xml:space="preserve">22.</t>
   </si>
   <si>
@@ -463,58 +517,13 @@
     <t xml:space="preserve">King’s Cape</t>
   </si>
   <si>
-    <t xml:space="preserve">23.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Yellow Shoes, King’s Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Crown, Yellow Shoes, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden Cap, Yellow Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap, Shoes, Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoes, Tunic, King’s Cape</t>
+    <t xml:space="preserve">44.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoes, King’s Cape</t>
   </si>
   <si>
     <t xml:space="preserve">45.</t>
@@ -605,15 +614,6 @@
   </si>
   <si>
     <t xml:space="preserve">Magic Crown, Yellow Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoes, King’s Cape</t>
   </si>
   <si>
     <t xml:space="preserve">49.</t>
@@ -699,7 +699,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -756,12 +756,6 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1A1A1A"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -926,13 +920,13 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF1A1A1A"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart109.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1066,31 +1060,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>662</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>493</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>284</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>265</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,11 +1092,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="28418315"/>
-        <c:axId val="76647621"/>
+        <c:axId val="48845405"/>
+        <c:axId val="95892252"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="28418315"/>
+        <c:axId val="48845405"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1129,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76647621"/>
+        <c:crossAx val="95892252"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +1137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76647621"/>
+        <c:axId val="95892252"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1180,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28418315"/>
+        <c:crossAx val="48845405"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1197,31 +1191,6 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="1a1a1a"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
@@ -1239,7 +1208,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart110.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1291,11 +1260,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>label 0</c:f>
+              <c:f>Arkusz1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Kolumna E</c:v>
+                  <c:v>Number of players using that fit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1344,7 +1313,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>categories</c:f>
+              <c:f>Arkusz1!$D$2:$D$73</c:f>
               <c:strCache>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
@@ -1387,22 +1356,22 @@
                   <c:v>Cap, Shoes</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Shoes</c:v>
+                  <c:v>Golden Cap, Yellow Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Golden Cap, Shoes</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Golden Cap, Shoes, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Magic Crown, Shoes, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Golden Cap</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Golden Cap, Shoes</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Golden Cap, Shoes, Tunic, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Golden Cap, Yellow Shoes, Tunic, King’s Cape</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>Magic Crown, Shoes, King’s Cape</c:v>
+                  <c:v>Shoes</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>Magic Crown, Shoes, Tunic</c:v>
@@ -1420,13 +1389,13 @@
                   <c:v>Golden Cap, Tunic</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>Magic Crown, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Magic Crown, Yellow Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>Magic Crown</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>Magic Crown, Tunic, King’s Cape</c:v>
+                  <c:v>Crown, Yellow Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Golden Cap, Yellow Shoes, King’s Cape</c:v>
@@ -1435,28 +1404,28 @@
                   <c:v>Golden Cap, Shoes, Tunic</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Crown, Yellow Shoes, Tunic, King’s Cape</c:v>
+                  <c:v>Magic Crown</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>Cap, Shoes, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>Scholar’s Hat, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>Scholar’s Hat, Shoes, Tunic</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>Scholar’s Hat, Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
+                  <c:v>Crown, Yellow Shoes, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>Scholar’s Hat, Shoes</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>Scholar’s Hat, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>Tunic</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Crown, Yellow Shoes, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>Golden Cap, Tunic, King’s Cape</c:v>
@@ -1486,58 +1455,58 @@
                   <c:v>Scholar’s Hat, Yellow Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>Magic Crown, Yellow Shoes, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Magic Crown, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Magic Crown, Yellow Shoes, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Golden Cap, Yellow Shoes</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Cap, Shoes, Tunic</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Shoes, Tunic, King’s Cape</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>Magic Crown, Yellow Shoes, King’s Cape</c:v>
+                <c:pt idx="53">
+                  <c:v>Shoes, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>Magic Crown, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>Magic Crown, Yellow Shoes, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Golden Cap, Yellow Shoes</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>Cap, Shoes, Tunic</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Shoes, Tunic, King’s Cape</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>Cap, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>Cap, Yellow Shoes</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>Cap, Tunic, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>Cap, Yellow Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>Scholar’s Hat, Yellow Shoes</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>Tunic, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>Shoes, Tunic</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>Yellow Shoes, Tunic</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>Yellow Shoes, Tunic, King’s Cape</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>Magic Crown, Yellow Shoes</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>Shoes, King’s Cape</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>Cap, Yellow Shoes, King’s Cape</c:v>
@@ -1568,15 +1537,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>0</c:f>
+              <c:f>Arkusz1!$E$2:$E$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>270</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>46</c:v>
@@ -1585,40 +1554,40 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>13</c:v>
@@ -1627,13 +1596,13 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>10</c:v>
@@ -1648,7 +1617,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>7</c:v>
@@ -1672,7 +1641,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>5</c:v>
@@ -1681,7 +1650,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4</c:v>
@@ -1726,7 +1695,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1</c:v>
@@ -1753,7 +1722,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0</c:v>
@@ -1794,11 +1763,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="53872873"/>
-        <c:axId val="57982994"/>
+        <c:axId val="73884189"/>
+        <c:axId val="1883614"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53872873"/>
+        <c:axId val="73884189"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1867,7 +1836,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57982994"/>
+        <c:crossAx val="1883614"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1875,7 +1844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57982994"/>
+        <c:axId val="1883614"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +1923,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53872873"/>
+        <c:crossAx val="73884189"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1965,31 +1934,6 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="1a1a1a"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
@@ -2018,9 +1962,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>540000</xdr:colOff>
+      <xdr:colOff>539640</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>652320</xdr:rowOff>
+      <xdr:rowOff>651960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2029,7 +1973,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11201400" y="71447040"/>
-        <a:ext cx="7158600" cy="4452840"/>
+        <a:ext cx="7158240" cy="4452480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2048,9 +1992,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>546120</xdr:colOff>
+      <xdr:colOff>545760</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>366480</xdr:rowOff>
+      <xdr:rowOff>366120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2059,7 +2003,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12002760" y="2276640"/>
-        <a:ext cx="20607840" cy="12758400"/>
+        <a:ext cx="20607480" cy="12758040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2078,9 +2022,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2094,7 +2038,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="75247560"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2115,9 +2059,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2131,7 +2075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="69532560"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2152,9 +2096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2168,7 +2112,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="70485120"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2189,9 +2133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2205,7 +2149,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="74295000"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2226,9 +2170,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2242,7 +2186,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="71437680"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2263,9 +2207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2279,7 +2223,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="72389880"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2300,9 +2244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2316,7 +2260,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="73342440"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2337,9 +2281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2353,81 +2297,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="77152680"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="image34.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="76200120"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="image34.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="76200120"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2448,23 +2318,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="image7.jpg" descr=""/>
+        <xdr:cNvPr id="10" name="image7.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="380880"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2485,23 +2355,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="image30.jpg" descr=""/>
+        <xdr:cNvPr id="11" name="image30.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="1333440"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2522,23 +2392,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="image6.jpg" descr=""/>
+        <xdr:cNvPr id="12" name="image6.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="2286000"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2559,60 +2429,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="image9.jpg" descr=""/>
+        <xdr:cNvPr id="13" name="image9.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="3238560"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="image15.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="6095880"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2633,60 +2466,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="image8.jpg" descr=""/>
+        <xdr:cNvPr id="14" name="image8.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="7048440"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="image35.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="12763800"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2707,356 +2503,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="image43.jpg" descr=""/>
+        <xdr:cNvPr id="15" name="image43.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="28955880"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="image56.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="29908440"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="image51.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="30861000"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="image19.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="31813920"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="image62.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="32766120"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="image60.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="33718320"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="image47.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="34670520"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="image61.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="35623440"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="image52.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId28"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="36576000"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="image65.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId29"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="37528560"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3077,23 +2540,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="image4.jpg" descr=""/>
+        <xdr:cNvPr id="16" name="image4.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId30"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="39433680"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3114,23 +2577,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="image17.jpg" descr=""/>
+        <xdr:cNvPr id="17" name="image17.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId31"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="38481480"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3151,23 +2614,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="image28.jpg" descr=""/>
+        <xdr:cNvPr id="18" name="image28.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId32"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="40386240"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3188,23 +2651,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="image58.jpg" descr=""/>
+        <xdr:cNvPr id="19" name="image58.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId33"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="41338440"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3225,23 +2688,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="image50.jpg" descr=""/>
+        <xdr:cNvPr id="20" name="image50.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId34"/>
+        <a:blip r:embed="rId21"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="42291000"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3262,13 +2725,494 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>46</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="image72.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="43243560"/>
+          <a:ext cx="947160" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>946800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="image53.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="68008320"/>
+          <a:ext cx="947160" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>946800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="image59.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="67055760"/>
+          <a:ext cx="947160" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>946800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="image63.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="66103200"/>
+          <a:ext cx="947160" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>946800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="image49.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="65150640"/>
+          <a:ext cx="947160" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>946800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="image55.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="64198080"/>
+          <a:ext cx="947160" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>946800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="image64.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="62293320"/>
+          <a:ext cx="947160" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>946800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="image67.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="63245520"/>
+          <a:ext cx="947160" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>946800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="image69.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="61340760"/>
+          <a:ext cx="947160" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>946800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="image22.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3349080" y="18478080"/>
+          <a:ext cx="947160" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="image34.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="19431000"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="image27.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="20383560"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="image72.jpg" descr=""/>
+        <xdr:cNvPr id="33" name="image2.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="21336480"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="image1.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3277,7 +3221,44 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="43243560"/>
+          <a:off x="3348720" y="9906480"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="image20.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="8953560"/>
           <a:ext cx="947520" cy="947520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3294,55 +3275,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="image40.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId36"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="48006360"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="image29.jpg" descr=""/>
+        <xdr:cNvPr id="36" name="image48.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3351,156 +3295,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="47053440"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="image25.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId38"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="44196480"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="image21.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId39"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="45149040"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="image23.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId40"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="46101600"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="image68.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId41"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="48958560"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3349080" y="8001000"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3517,27 +3313,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>945360</xdr:rowOff>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="image16.jpg" descr=""/>
+        <xdr:cNvPr id="37" name="image25.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId42"/>
+        <a:blip r:embed="rId38"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="49911120"/>
-          <a:ext cx="947520" cy="945360"/>
+          <a:off x="3349080" y="49911480"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3552,19 +3348,167 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="image44.jpg" descr=""/>
+        <xdr:cNvPr id="38" name="image40.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="47053800"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="image29.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="46100880"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="image21.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="44196480"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="image23.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="45149040"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="image68.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3573,8 +3517,82 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="51816240"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3348720" y="48006000"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>945000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="image16.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="48958560"/>
+          <a:ext cx="947520" cy="945000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="image14.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="25146000"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3595,23 +3613,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="image24.jpg" descr=""/>
+        <xdr:cNvPr id="45" name="image26.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId44"/>
+        <a:blip r:embed="rId46"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3349080" y="50863680"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3626,93 +3644,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-360</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="image54.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId45"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="52768080"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="image57.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId46"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="53720640"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>-720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>946800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="image66.jpg" descr=""/>
+        <xdr:cNvPr id="46" name="image44.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3721,451 +3665,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="54672840"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="image70.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId48"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="55626120"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="image71.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId49"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="56578680"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="image53.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId50"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="68008320"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="image59.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId51"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="67055760"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="image63.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId52"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="66103200"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="image49.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId53"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="65150640"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="image55.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId54"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="64198080"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="image64.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId55"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="62293320"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="image67.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId56"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="63245520"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="image69.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId57"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="61340760"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="image26.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId58"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="60388560"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="image18.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId59"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="57530880"/>
+          <a:off x="3348720" y="52768440"/>
           <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4181,66 +3681,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="image10.jpg" descr=""/>
+        <xdr:cNvPr id="47" name="image24.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId60"/>
+        <a:blip r:embed="rId48"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="58483440"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>950760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="image13.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId61"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="59434200"/>
-          <a:ext cx="947520" cy="949320"/>
+          <a:off x="3348720" y="51815880"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4256,65 +3719,28 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>-720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>946440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="image11.jpg" descr=""/>
+        <xdr:cNvPr id="48" name="image54.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId62"/>
+        <a:blip r:embed="rId49"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="6095520"/>
-          <a:ext cx="947880" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="image22.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId63"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="18478080"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3348720" y="53720280"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4330,28 +3756,28 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>-720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>946440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="image34.jpg" descr=""/>
+        <xdr:cNvPr id="49" name="image57.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId64"/>
+        <a:blip r:embed="rId50"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="19431000"/>
-          <a:ext cx="947880" cy="947520"/>
+          <a:off x="3348720" y="54672840"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4367,28 +3793,28 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>951480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>946080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="image27.jpg" descr=""/>
+        <xdr:cNvPr id="50" name="image66.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId65"/>
+        <a:blip r:embed="rId51"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="20383560"/>
-          <a:ext cx="947880" cy="947520"/>
+          <a:off x="3348720" y="55625040"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4404,65 +3830,28 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>946800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="image2.jpg" descr=""/>
+        <xdr:cNvPr id="51" name="image70.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId66"/>
+        <a:blip r:embed="rId52"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="21336480"/>
-          <a:ext cx="947880" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="image41.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId67"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="22288320"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3348720" y="56578320"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4478,65 +3867,28 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="image31.jpg" descr=""/>
+        <xdr:cNvPr id="52" name="image71.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId68"/>
+        <a:blip r:embed="rId53"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="23240880"/>
-          <a:ext cx="947880" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="image41.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId69"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="23240520"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3348720" y="57530880"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4552,139 +3904,28 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>946440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="image46.jpg" descr=""/>
+        <xdr:cNvPr id="53" name="image18.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId70"/>
+        <a:blip r:embed="rId54"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="22288320"/>
-          <a:ext cx="947880" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="image47.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId71"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="35623080"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="image61.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId72"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="36576000"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="image52.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId73"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="37528560"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3348720" y="58483080"/>
+          <a:ext cx="947520" cy="946800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4700,139 +3941,28 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>946800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="image65.jpg" descr=""/>
+        <xdr:cNvPr id="54" name="image10.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId74"/>
+        <a:blip r:embed="rId55"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="34670880"/>
-          <a:ext cx="947880" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="image62.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId75"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="31813560"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="image60.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId76"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="32765760"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>-720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>946800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="image47.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId77"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="33717960"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3348720" y="59435640"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4848,472 +3978,28 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>950400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>946800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="image65.jpg" descr=""/>
+        <xdr:cNvPr id="55" name="image13.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId78"/>
+        <a:blip r:embed="rId56"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="33718320"/>
-          <a:ext cx="947880" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="image19.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId79"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="34671240"/>
-          <a:ext cx="947880" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="image42.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId80"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="12763440"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="image32.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId81"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="12763440"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="image36.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId82"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="11810880"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="image39.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId83"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="11810880"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="image11.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId84"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3348720" y="4190760"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="image3.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId85"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="13716000"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="image42.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId86"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="14668560"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="image32.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId87"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="15621120"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="image45.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId88"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="16573680"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>948240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="image38.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId89"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="17526600"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="image32.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId90"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="14668560"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3348720" y="60386400"/>
+          <a:ext cx="947520" cy="948960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5334,23 +4020,60 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="image42.jpg" descr=""/>
+        <xdr:cNvPr id="56" name="image3.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId91"/>
+        <a:blip r:embed="rId57"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3348720" y="15621120"/>
-          <a:ext cx="948240" cy="947520"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>947880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="image38.jpg" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId58"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3348720" y="12764160"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5367,286 +4090,27 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>-360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="image35.jpg" descr=""/>
+        <xdr:cNvPr id="58" name="image45.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId92"/>
+        <a:blip r:embed="rId59"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="14668920"/>
-          <a:ext cx="947880" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="image14.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId93"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="24193440"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="image5.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId94"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="25145640"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="image37.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId95"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="26098560"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="image46.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId96"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="27050760"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="image33.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId97"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="28003680"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>-720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>946800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="image5.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId98"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="26097840"/>
-          <a:ext cx="947520" cy="947520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="image37.jpg" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId99"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3349080" y="27050760"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3348720" y="14668560"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5662,28 +4126,65 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="image31.jpg" descr=""/>
+        <xdr:cNvPr id="59" name="image51.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId100"/>
+        <a:blip r:embed="rId60"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="25145640"/>
-          <a:ext cx="947880" cy="947520"/>
+          <a:off x="3348720" y="31813560"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1535760</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>59040</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="image34.jpg 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId61"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3342240" y="76200480"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5698,29 +4199,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="image39.jpg" descr=""/>
+        <xdr:cNvPr id="61" name="image15.jpg 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId101"/>
+        <a:blip r:embed="rId62"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="10858680"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3351960" y="4191480"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5735,29 +4236,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>3240</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="image36.jpg" descr=""/>
+        <xdr:cNvPr id="62" name="image12.jpg 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId102"/>
+        <a:blip r:embed="rId63"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="10858680"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3352320" y="5143680"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5772,29 +4273,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="image1.jpg" descr=""/>
+        <xdr:cNvPr id="63" name="image11.jpg 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId103"/>
+        <a:blip r:embed="rId64"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="9906480"/>
-          <a:ext cx="947880" cy="947520"/>
+          <a:off x="3351960" y="6096240"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5809,29 +4310,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>3240</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>947880</xdr:rowOff>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="image20.jpg" descr=""/>
+        <xdr:cNvPr id="64" name="image36.jpg 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId104"/>
+        <a:blip r:embed="rId65"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="8953560"/>
-          <a:ext cx="947880" cy="947880"/>
+          <a:off x="3352320" y="10858680"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5846,29 +4347,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>3240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="image48.jpg" descr=""/>
+        <xdr:cNvPr id="65" name="image39.jpg 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId105"/>
+        <a:blip r:embed="rId66"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="8001000"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3352320" y="11811240"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5883,29 +4384,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="image11.jpg" descr=""/>
+        <xdr:cNvPr id="66" name="image42.jpg 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId106"/>
+        <a:blip r:embed="rId67"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="5143320"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3351960" y="13716000"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5920,29 +4421,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="image15.jpg" descr=""/>
+        <xdr:cNvPr id="67" name="image35.jpg 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId107"/>
+        <a:blip r:embed="rId68"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="5143680"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3351960" y="16573680"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5957,29 +4458,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="image12.jpg" descr=""/>
+        <xdr:cNvPr id="68" name="image32.jpg 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId108"/>
+        <a:blip r:embed="rId69"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="5143680"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3351960" y="17526240"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5994,29 +4495,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>947520</xdr:rowOff>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="image12.jpg" descr=""/>
+        <xdr:cNvPr id="69" name="image46.jpg 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId109"/>
+        <a:blip r:embed="rId70"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3349080" y="4191120"/>
-          <a:ext cx="947520" cy="947520"/>
+          <a:off x="3351960" y="22288680"/>
+          <a:ext cx="947520" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6031,29 +4532,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:colOff>3240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>947160</xdr:rowOff>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="image11.jpg" descr=""/>
+        <xdr:cNvPr id="70" name="image5.jpg 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId110"/>
+        <a:blip r:embed="rId71"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="4190760"/>
-          <a:ext cx="947880" cy="947520"/>
+          <a:off x="3352320" y="23241240"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6068,29 +4569,436 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>947520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="image41.jpg 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId72"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3351960" y="24193800"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="image37.jpg 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId73"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3351960" y="26098560"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="image33.jpg 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId74"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3351960" y="27051120"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="image31.jpg 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId75"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3351960" y="28003680"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="image60.jpg 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId76"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3351960" y="29908440"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="image56.jpg 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId77"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3351960" y="30861000"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="image19.jpg 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId78"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3351960" y="32766120"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="image19.jpg 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId79"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3351960" y="33718680"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>947520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="image15.jpg" descr=""/>
+        <xdr:cNvPr id="79" name="image65.jpg 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId111"/>
+        <a:blip r:embed="rId80"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348720" y="4191120"/>
-          <a:ext cx="947880" cy="947520"/>
+          <a:off x="3351960" y="34671240"/>
+          <a:ext cx="947520" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3240</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="image47.jpg 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId81"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352320" y="35623440"/>
+          <a:ext cx="947160" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3240</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="image61.jpg 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId82"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352320" y="36576000"/>
+          <a:ext cx="947160" cy="947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3240</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>947160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="image52.jpg 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId83"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352320" y="37528560"/>
+          <a:ext cx="947160" cy="947160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6112,8 +5020,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE5" activeCellId="0" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6158,7 +5066,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
@@ -6166,7 +5074,7 @@
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">SUM(E2:E73)</f>
-        <v>1022</v>
+        <v>1035</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -6203,9 +5111,6 @@
       </c>
       <c r="F3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -6332,8 +5237,6 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -6347,7 +5250,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -6419,7 +5322,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -6491,7 +5394,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -6534,8 +5437,6 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
@@ -6554,8 +5455,6 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
@@ -6569,13 +5468,11 @@
         <v>47</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
@@ -6589,13 +5486,11 @@
         <v>50</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -6607,11 +5502,6 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
@@ -6625,13 +5515,11 @@
         <v>53</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -6643,11 +5531,6 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
@@ -6663,7 +5546,9 @@
       <c r="E18" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
@@ -6679,12 +5564,9 @@
       <c r="E19" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -6694,12 +5576,6 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
@@ -6715,12 +5591,9 @@
       <c r="E20" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -6730,12 +5603,6 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
@@ -6751,7 +5618,9 @@
       <c r="E21" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
@@ -6765,7 +5634,7 @@
         <v>68</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -6831,11 +5700,9 @@
       <c r="E26" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -6847,11 +5714,6 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
@@ -6865,13 +5727,11 @@
         <v>83</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -6883,11 +5743,6 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
@@ -6903,11 +5758,9 @@
       <c r="E28" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -6919,11 +5772,6 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
@@ -6939,11 +5787,9 @@
       <c r="E29" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
@@ -6959,11 +5805,9 @@
       <c r="E30" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -6975,11 +5819,6 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
@@ -6993,13 +5832,11 @@
         <v>95</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -7011,11 +5848,6 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
@@ -7067,11 +5899,9 @@
       <c r="E33" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -7083,11 +5913,6 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
@@ -7103,11 +5928,9 @@
       <c r="E34" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -7119,11 +5942,6 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
@@ -7137,13 +5955,11 @@
         <v>107</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
@@ -7159,11 +5975,9 @@
       <c r="E36" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -7175,11 +5989,6 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
@@ -7195,11 +6004,9 @@
       <c r="E37" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -7211,11 +6018,6 @@
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
@@ -7229,7 +6031,7 @@
         <v>116</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -7342,8 +6144,6 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
@@ -7611,11 +6411,9 @@
       <c r="E49" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -7627,11 +6425,6 @@
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
@@ -7647,11 +6440,9 @@
       <c r="E50" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0"/>
+      <c r="H50" s="0"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -7663,11 +6454,6 @@
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
@@ -7683,11 +6469,9 @@
       <c r="E51" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -7699,11 +6483,6 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
@@ -7719,11 +6498,9 @@
       <c r="E52" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0"/>
+      <c r="H52" s="0"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -7735,11 +6512,6 @@
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
@@ -7753,13 +6525,11 @@
         <v>161</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -7771,11 +6541,6 @@
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
@@ -7791,11 +6556,9 @@
       <c r="E54" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0"/>
+      <c r="H54" s="0"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -7807,11 +6570,6 @@
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
@@ -7827,11 +6585,9 @@
       <c r="E55" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0"/>
+      <c r="H55" s="0"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -7843,11 +6599,6 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
@@ -7863,11 +6614,9 @@
       <c r="E56" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -7879,11 +6628,6 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
@@ -7899,11 +6643,9 @@
       <c r="E57" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0"/>
+      <c r="H57" s="0"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -7915,11 +6657,6 @@
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
@@ -7935,11 +6672,9 @@
       <c r="E58" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -7951,11 +6686,6 @@
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
@@ -7971,11 +6701,9 @@
       <c r="E59" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+      <c r="H59" s="0"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -7987,11 +6715,6 @@
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
@@ -8007,11 +6730,9 @@
       <c r="E60" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -8023,11 +6744,6 @@
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
@@ -8043,11 +6759,9 @@
       <c r="E61" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="F61" s="0"/>
+      <c r="G61" s="0"/>
+      <c r="H61" s="0"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -8059,11 +6773,6 @@
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
@@ -8077,13 +6786,11 @@
         <v>188</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F62" s="0"/>
+      <c r="G62" s="0"/>
+      <c r="H62" s="0"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -8095,11 +6802,6 @@
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
@@ -8115,11 +6817,9 @@
       <c r="E63" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="F63" s="0"/>
+      <c r="G63" s="0"/>
+      <c r="H63" s="0"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -8131,11 +6831,6 @@
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
@@ -8151,11 +6846,9 @@
       <c r="E64" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -8167,11 +6860,6 @@
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
@@ -8557,15 +7245,15 @@
     </row>
     <row r="76" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="n">
-        <f aca="false">SUM(E2,E13,E3,E4,E42,E35,E9,E13,E7,E5,E43,E27)</f>
-        <v>662</v>
+        <f aca="false">SUM(E2,E13,E3,E4,E42,E37,E9,E13,E7,E5,E43,E28)</f>
+        <v>665</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -8574,7 +7262,7 @@
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">SUM(D76:D84)</f>
-        <v>2075</v>
+        <v>2097</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -8597,15 +7285,15 @@
     </row>
     <row r="77" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="n">
-        <f aca="false">SUM(E54,E3,E4,E7,E5,E7,E16,E21,E14,E16,E17,E13,E30,E18,E65,E13,E32,E53,E39,E36,E70,E33,E34,E61)</f>
-        <v>493</v>
+        <f aca="false">SUM(E53,E3,E4,E7,E5,E7,E18,E21,E14,E18,E19,E13,E29,E16,E55,E13,E32,E52,E39,E33,E70,E34,E35,E62)</f>
+        <v>498</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -8632,15 +7320,15 @@
     </row>
     <row r="78" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="n">
-        <f aca="false">SUM(E54,E63,E13,E4,E35,E13,E5,E27,E24,E16,E48,E49,E27,E14,E25,E23,E13,E28,E38,E18,E19,E65,E55,E32,E66,E57,E39,E58,E69,E70,E71,E72,E73,E34,E47,E60)</f>
-        <v>284</v>
+        <f aca="false">SUM(E53,E64,E13,E4,E37,E13,E5,E28,E24,E18,E54,E48,E28,E14,E25,E23,E13,E31,E36,E16,E17,E55,E56,E32,E66,E58,E39,E59,E69,E70,E71,E72,E73,E35,E47,E61)</f>
+        <v>287</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -8670,12 +7358,12 @@
         <v>5</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="n">
-        <f aca="false">SUM(E54,E62,E63,E9,E13,E7,E5,E43,E27,E50,E27,E21,E14,E51,E25,E29,E38,E30,E18,E44,E19,E45,E57,E53,E39,E67,E58,E37,E72,E33,E34,E40,E47,E41,E60,E61)</f>
-        <v>265</v>
+        <f aca="false">SUM(E53,E63,E64,E9,E13,E7,E5,E43,E28,E49,E28,E21,E14,E50,E25,E26,E36,E29,E16,E44,E17,E45,E58,E52,E39,E67,E59,E38,E72,E34,E35,E40,E47,E41,E61,E62)</f>
+        <v>269</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -8705,12 +7393,12 @@
         <v>33</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="n">
-        <f aca="false">SUM(E15,E23,E16,E13,E52,E28,E29,E38,E30,E18,E44,E19)</f>
-        <v>111</v>
+        <f aca="false">SUM(E20,E23,E18,E13,E51,E31,E26,E36,E29,E16,E44,E17)</f>
+        <v>114</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -8740,12 +7428,12 @@
         <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="n">
-        <f aca="false">SUM(E26,E24,E7,E16,E64,E49,E50,E27,E21,E14,E51,E25)</f>
-        <v>112</v>
+        <f aca="false">SUM(E27,E24,E7,E18,E65,E48,E49,E28,E21,E14,E50,E25)</f>
+        <v>113</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -8779,7 +7467,7 @@
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="n">
-        <f aca="false">SUM(E62,E63,E42,E35,E43,E27,E64,E49,E51,E25,E52,E28,E44,E19,E56,E66,E67,E68,E58,E59,E71,E73,E40,E47)</f>
+        <f aca="false">SUM(E63,E64,E42,E37,E43,E28,E65,E48,E50,E25,E51,E31,E44,E17,E57,E66,E67,E68,E59,E60,E71,E73,E40,E47)</f>
         <v>66</v>
       </c>
       <c r="E82" s="3"/>
@@ -8814,8 +7502,8 @@
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="n">
-        <f aca="false">SUM(E22,E65,E55,E13,E32,E56,E66,E45,E57,E53,E39,E67,E58)</f>
-        <v>49</v>
+        <f aca="false">SUM(E22,E55,E56,E13,E32,E57,E66,E45,E58,E52,E39,E67,E59)</f>
+        <v>51</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -8842,15 +7530,15 @@
     </row>
     <row r="84" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="n">
-        <f aca="false">SUM(E46,E69,E36,E70,E59,E71,E37,E72,E33,E34,E40,E47)</f>
-        <v>33</v>
+        <f aca="false">SUM(E46,E69,E33,E70,E60,E71,E38,E72,E34,E35,E40,E47)</f>
+        <v>34</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -21593,9 +20281,9 @@
   <mergeCells count="1">
     <mergeCell ref="A75:D75"/>
   </mergeCells>
-  <conditionalFormatting sqref="C54">
+  <conditionalFormatting sqref="C53">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(C54))&gt;0</formula>
+      <formula>LEN(TRIM(C53))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
